--- a/Considered_Stocks.xlsx
+++ b/Considered_Stocks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="1438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="1267">
   <si>
     <t>Information Technology</t>
   </si>
@@ -595,7 +595,7 @@
     <t>AXSM</t>
   </si>
   <si>
-    <t>AQUA</t>
+    <t/>
   </si>
   <si>
     <t>COP</t>
@@ -628,9 +628,6 @@
     <t>AZN</t>
   </si>
   <si>
-    <t>ARMK</t>
-  </si>
-  <si>
     <t>CPG</t>
   </si>
   <si>
@@ -661,9 +658,6 @@
     <t>BAX</t>
   </si>
   <si>
-    <t>ATI</t>
-  </si>
-  <si>
     <t>CRC</t>
   </si>
   <si>
@@ -694,9 +688,6 @@
     <t>BCRX</t>
   </si>
   <si>
-    <t>ATKR</t>
-  </si>
-  <si>
     <t>CRK</t>
   </si>
   <si>
@@ -727,9 +718,6 @@
     <t>BDX</t>
   </si>
   <si>
-    <t>AVAV</t>
-  </si>
-  <si>
     <t>CSAN</t>
   </si>
   <si>
@@ -760,9 +748,6 @@
     <t>BEAM</t>
   </si>
   <si>
-    <t>AXON</t>
-  </si>
-  <si>
     <t>CTRA</t>
   </si>
   <si>
@@ -793,9 +778,6 @@
     <t>BGNE</t>
   </si>
   <si>
-    <t>AYI</t>
-  </si>
-  <si>
     <t>CVE</t>
   </si>
   <si>
@@ -826,9 +808,6 @@
     <t>BIIB</t>
   </si>
   <si>
-    <t>AZEK</t>
-  </si>
-  <si>
     <t>CVI</t>
   </si>
   <si>
@@ -859,9 +838,6 @@
     <t>BIO</t>
   </si>
   <si>
-    <t>BA</t>
-  </si>
-  <si>
     <t>CVX</t>
   </si>
   <si>
@@ -892,9 +868,6 @@
     <t>BLU</t>
   </si>
   <si>
-    <t>BAH</t>
-  </si>
-  <si>
     <t>DCP</t>
   </si>
   <si>
@@ -925,9 +898,6 @@
     <t>BMRN</t>
   </si>
   <si>
-    <t>BECN</t>
-  </si>
-  <si>
     <t>DEN</t>
   </si>
   <si>
@@ -958,9 +928,6 @@
     <t>BMY</t>
   </si>
   <si>
-    <t>BLD</t>
-  </si>
-  <si>
     <t>DINO</t>
   </si>
   <si>
@@ -991,9 +958,6 @@
     <t>BNTX</t>
   </si>
   <si>
-    <t>BLDE</t>
-  </si>
-  <si>
     <t>DTM</t>
   </si>
   <si>
@@ -1024,9 +988,6 @@
     <t>BRKR</t>
   </si>
   <si>
-    <t>BLDR</t>
-  </si>
-  <si>
     <t>DVN</t>
   </si>
   <si>
@@ -1057,9 +1018,6 @@
     <t>BSX</t>
   </si>
   <si>
-    <t>BWXT</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -1090,9 +1048,6 @@
     <t>CAH</t>
   </si>
   <si>
-    <t>BZ</t>
-  </si>
-  <si>
     <t>EC</t>
   </si>
   <si>
@@ -1123,9 +1078,6 @@
     <t>CDNA</t>
   </si>
   <si>
-    <t>CAE</t>
-  </si>
-  <si>
     <t>ENB</t>
   </si>
   <si>
@@ -1156,9 +1108,6 @@
     <t>CERS</t>
   </si>
   <si>
-    <t>CAR</t>
-  </si>
-  <si>
     <t>ENLC</t>
   </si>
   <si>
@@ -1189,9 +1138,6 @@
     <t>CI</t>
   </si>
   <si>
-    <t>CARR</t>
-  </si>
-  <si>
     <t>EOG</t>
   </si>
   <si>
@@ -1222,9 +1168,6 @@
     <t>CNC</t>
   </si>
   <si>
-    <t>CAT</t>
-  </si>
-  <si>
     <t>EPD</t>
   </si>
   <si>
@@ -1255,9 +1198,6 @@
     <t>COO</t>
   </si>
   <si>
-    <t>CHRW</t>
-  </si>
-  <si>
     <t>EQNR</t>
   </si>
   <si>
@@ -1288,9 +1228,6 @@
     <t>CRL</t>
   </si>
   <si>
-    <t>CLH</t>
-  </si>
-  <si>
     <t>EQT</t>
   </si>
   <si>
@@ -1321,9 +1258,6 @@
     <t>CRSP</t>
   </si>
   <si>
-    <t>CMI</t>
-  </si>
-  <si>
     <t>ERF</t>
   </si>
   <si>
@@ -1354,9 +1288,6 @@
     <t>CVS</t>
   </si>
   <si>
-    <t>CNHI</t>
-  </si>
-  <si>
     <t>ET</t>
   </si>
   <si>
@@ -1387,9 +1318,6 @@
     <t>DGX</t>
   </si>
   <si>
-    <t>CNI</t>
-  </si>
-  <si>
     <t>ETRN</t>
   </si>
   <si>
@@ -1420,9 +1348,6 @@
     <t>DHR</t>
   </si>
   <si>
-    <t>CNM</t>
-  </si>
-  <si>
     <t>FANG</t>
   </si>
   <si>
@@ -1453,9 +1378,6 @@
     <t>DNA</t>
   </si>
   <si>
-    <t>CP</t>
-  </si>
-  <si>
     <t>FRO</t>
   </si>
   <si>
@@ -1486,9 +1408,6 @@
     <t>DXCM</t>
   </si>
   <si>
-    <t>CPA</t>
-  </si>
-  <si>
     <t>FTI</t>
   </si>
   <si>
@@ -1519,9 +1438,6 @@
     <t>EDIT</t>
   </si>
   <si>
-    <t>CR</t>
-  </si>
-  <si>
     <t>GLNG</t>
   </si>
   <si>
@@ -1552,9 +1468,6 @@
     <t>ELV</t>
   </si>
   <si>
-    <t>CSL</t>
-  </si>
-  <si>
     <t>HAL</t>
   </si>
   <si>
@@ -1585,9 +1498,6 @@
     <t>EMBC</t>
   </si>
   <si>
-    <t>CSX</t>
-  </si>
-  <si>
     <t>HES</t>
   </si>
   <si>
@@ -1618,9 +1528,6 @@
     <t>EW</t>
   </si>
   <si>
-    <t>CTAS</t>
-  </si>
-  <si>
     <t>HESM</t>
   </si>
   <si>
@@ -1651,9 +1558,6 @@
     <t>EXAS</t>
   </si>
   <si>
-    <t>CWST</t>
-  </si>
-  <si>
     <t>HP</t>
   </si>
   <si>
@@ -1684,9 +1588,6 @@
     <t>EXEL</t>
   </si>
   <si>
-    <t>CXT</t>
-  </si>
-  <si>
     <t>IEP</t>
   </si>
   <si>
@@ -1717,9 +1618,6 @@
     <t>FGEN</t>
   </si>
   <si>
-    <t>DAL</t>
-  </si>
-  <si>
     <t>KMI</t>
   </si>
   <si>
@@ -1750,9 +1648,6 @@
     <t>FMS</t>
   </si>
   <si>
-    <t>DCI</t>
-  </si>
-  <si>
     <t>KOS</t>
   </si>
   <si>
@@ -1783,9 +1678,6 @@
     <t>FNA</t>
   </si>
   <si>
-    <t>DE</t>
-  </si>
-  <si>
     <t>LBRT</t>
   </si>
   <si>
@@ -1816,9 +1708,6 @@
     <t>GEHC</t>
   </si>
   <si>
-    <t>DLB</t>
-  </si>
-  <si>
     <t>LNG</t>
   </si>
   <si>
@@ -1849,9 +1738,6 @@
     <t>GILD</t>
   </si>
   <si>
-    <t>DOV</t>
-  </si>
-  <si>
     <t>MGY</t>
   </si>
   <si>
@@ -1882,9 +1768,6 @@
     <t>GMAB</t>
   </si>
   <si>
-    <t>DRS</t>
-  </si>
-  <si>
     <t>MMP</t>
   </si>
   <si>
@@ -1915,9 +1798,6 @@
     <t>GRWG</t>
   </si>
   <si>
-    <t>EFX</t>
-  </si>
-  <si>
     <t>MPC</t>
   </si>
   <si>
@@ -1948,9 +1828,6 @@
     <t>GSK</t>
   </si>
   <si>
-    <t>EME</t>
-  </si>
-  <si>
     <t>MPLX</t>
   </si>
   <si>
@@ -1981,9 +1858,6 @@
     <t>HCA</t>
   </si>
   <si>
-    <t>EMR</t>
-  </si>
-  <si>
     <t>MRO</t>
   </si>
   <si>
@@ -2014,9 +1888,6 @@
     <t>HLN</t>
   </si>
   <si>
-    <t>ETN</t>
-  </si>
-  <si>
     <t>MTDR</t>
   </si>
   <si>
@@ -2047,9 +1918,6 @@
     <t>HOLX</t>
   </si>
   <si>
-    <t>EXPD</t>
-  </si>
-  <si>
     <t>MUR</t>
   </si>
   <si>
@@ -2080,9 +1948,6 @@
     <t>HSIC</t>
   </si>
   <si>
-    <t>EXPO</t>
-  </si>
-  <si>
     <t>NE</t>
   </si>
   <si>
@@ -2098,7 +1963,7 @@
     <t>FLT</t>
   </si>
   <si>
-    <t xml:space="preserve">SKM </t>
+    <t>SKM</t>
   </si>
   <si>
     <t>GM</t>
@@ -2113,9 +1978,6 @@
     <t>HUM</t>
   </si>
   <si>
-    <t>FAST</t>
-  </si>
-  <si>
     <t>NFG</t>
   </si>
   <si>
@@ -2146,9 +2008,6 @@
     <t>HZNP</t>
   </si>
   <si>
-    <t>FBIN</t>
-  </si>
-  <si>
     <t>NOG</t>
   </si>
   <si>
@@ -2179,9 +2038,6 @@
     <t>ICLR</t>
   </si>
   <si>
-    <t>FDX</t>
-  </si>
-  <si>
     <t>NOV</t>
   </si>
   <si>
@@ -2212,9 +2068,6 @@
     <t>IDXX</t>
   </si>
   <si>
-    <t>FERG</t>
-  </si>
-  <si>
     <t>OKE</t>
   </si>
   <si>
@@ -2245,9 +2098,6 @@
     <t>IIPR</t>
   </si>
   <si>
-    <t>FIX</t>
-  </si>
-  <si>
     <t>OVV</t>
   </si>
   <si>
@@ -2278,9 +2128,6 @@
     <t>ILMN</t>
   </si>
   <si>
-    <t>FLR</t>
-  </si>
-  <si>
     <t>OXY</t>
   </si>
   <si>
@@ -2311,9 +2158,6 @@
     <t>INCY</t>
   </si>
   <si>
-    <t>FLS</t>
-  </si>
-  <si>
     <t>PAA</t>
   </si>
   <si>
@@ -2344,9 +2188,6 @@
     <t>INSP</t>
   </si>
   <si>
-    <t>GD</t>
-  </si>
-  <si>
     <t>PAGP</t>
   </si>
   <si>
@@ -2377,9 +2218,6 @@
     <t>IQV</t>
   </si>
   <si>
-    <t>GE</t>
-  </si>
-  <si>
     <t>PBA</t>
   </si>
   <si>
@@ -2410,9 +2248,6 @@
     <t>IRWD</t>
   </si>
   <si>
-    <t>GFL</t>
-  </si>
-  <si>
     <t>PBF</t>
   </si>
   <si>
@@ -2443,9 +2278,6 @@
     <t>ISRG</t>
   </si>
   <si>
-    <t>GGG</t>
-  </si>
-  <si>
     <t>PBR</t>
   </si>
   <si>
@@ -2473,9 +2305,6 @@
     <t>JAZZ</t>
   </si>
   <si>
-    <t>GNRC</t>
-  </si>
-  <si>
     <t>PDCE</t>
   </si>
   <si>
@@ -2503,9 +2332,6 @@
     <t>JNJ</t>
   </si>
   <si>
-    <t>GPN</t>
-  </si>
-  <si>
     <t>PR</t>
   </si>
   <si>
@@ -2533,9 +2359,6 @@
     <t>LEGN</t>
   </si>
   <si>
-    <t>GTES</t>
-  </si>
-  <si>
     <t>PSX</t>
   </si>
   <si>
@@ -2563,9 +2386,6 @@
     <t>LH</t>
   </si>
   <si>
-    <t>GTLS</t>
-  </si>
-  <si>
     <t>PTEN</t>
   </si>
   <si>
@@ -2593,9 +2413,6 @@
     <t>LLY</t>
   </si>
   <si>
-    <t>GWW</t>
-  </si>
-  <si>
     <t>PXD</t>
   </si>
   <si>
@@ -2623,9 +2440,6 @@
     <t>MASS</t>
   </si>
   <si>
-    <t>GXO</t>
-  </si>
-  <si>
     <t>RIG</t>
   </si>
   <si>
@@ -2653,9 +2467,6 @@
     <t>MCK</t>
   </si>
   <si>
-    <t>HEI</t>
-  </si>
-  <si>
     <t>RRC</t>
   </si>
   <si>
@@ -2683,9 +2494,6 @@
     <t>MDT</t>
   </si>
   <si>
-    <t>HI</t>
-  </si>
-  <si>
     <t>SLB</t>
   </si>
   <si>
@@ -2713,9 +2521,6 @@
     <t>MOH</t>
   </si>
   <si>
-    <t>HII</t>
-  </si>
-  <si>
     <t>SM</t>
   </si>
   <si>
@@ -2743,9 +2548,6 @@
     <t>MRK</t>
   </si>
   <si>
-    <t>HON</t>
-  </si>
-  <si>
     <t>STNG</t>
   </si>
   <si>
@@ -2773,9 +2575,6 @@
     <t>MRNA</t>
   </si>
   <si>
-    <t>HTZ</t>
-  </si>
-  <si>
     <t>STR</t>
   </si>
   <si>
@@ -2803,9 +2602,6 @@
     <t>MTD</t>
   </si>
   <si>
-    <t>HUBB</t>
-  </si>
-  <si>
     <t>SU</t>
   </si>
   <si>
@@ -2833,9 +2629,6 @@
     <t>MYGN</t>
   </si>
   <si>
-    <t>HWM</t>
-  </si>
-  <si>
     <t>SUN</t>
   </si>
   <si>
@@ -2863,9 +2656,6 @@
     <t>NBIX</t>
   </si>
   <si>
-    <t>HXL</t>
-  </si>
-  <si>
     <t>SWN</t>
   </si>
   <si>
@@ -2893,9 +2683,6 @@
     <t>NTLA</t>
   </si>
   <si>
-    <t>IEX</t>
-  </si>
-  <si>
     <t>TDW</t>
   </si>
   <si>
@@ -2920,9 +2707,6 @@
     <t>NVAX</t>
   </si>
   <si>
-    <t>IR</t>
-  </si>
-  <si>
     <t>TPL</t>
   </si>
   <si>
@@ -2947,9 +2731,6 @@
     <t>NVO</t>
   </si>
   <si>
-    <t>ITT</t>
-  </si>
-  <si>
     <t>TRGP</t>
   </si>
   <si>
@@ -2974,9 +2755,6 @@
     <t>NVS</t>
   </si>
   <si>
-    <t>ITW</t>
-  </si>
-  <si>
     <t>TRMD</t>
   </si>
   <si>
@@ -3001,9 +2779,6 @@
     <t>OMI</t>
   </si>
   <si>
-    <t>J</t>
-  </si>
-  <si>
     <t>TRP</t>
   </si>
   <si>
@@ -3028,9 +2803,6 @@
     <t>OSCR</t>
   </si>
   <si>
-    <t>JBHT</t>
-  </si>
-  <si>
     <t>TS</t>
   </si>
   <si>
@@ -3055,9 +2827,6 @@
     <t>PACB</t>
   </si>
   <si>
-    <t>JBLU</t>
-  </si>
-  <si>
     <t>TSP</t>
   </si>
   <si>
@@ -3082,9 +2851,6 @@
     <t>PCRX</t>
   </si>
   <si>
-    <t>JCI</t>
-  </si>
-  <si>
     <t>TTE</t>
   </si>
   <si>
@@ -3109,9 +2875,6 @@
     <t>PEN</t>
   </si>
   <si>
-    <t>JOBY</t>
-  </si>
-  <si>
     <t>VAL</t>
   </si>
   <si>
@@ -3136,9 +2899,6 @@
     <t>PFE</t>
   </si>
   <si>
-    <t>KBR</t>
-  </si>
-  <si>
     <t>VLO</t>
   </si>
   <si>
@@ -3160,9 +2920,6 @@
     <t>PHG</t>
   </si>
   <si>
-    <t>KEX</t>
-  </si>
-  <si>
     <t>VNOM</t>
   </si>
   <si>
@@ -3184,9 +2941,6 @@
     <t>PHR</t>
   </si>
   <si>
-    <t>KNX</t>
-  </si>
-  <si>
     <t>VVV</t>
   </si>
   <si>
@@ -3208,9 +2962,6 @@
     <t>PKI</t>
   </si>
   <si>
-    <t>KTOS</t>
-  </si>
-  <si>
     <t>WDS</t>
   </si>
   <si>
@@ -3229,9 +2980,6 @@
     <t>PODD</t>
   </si>
   <si>
-    <t>LECO</t>
-  </si>
-  <si>
     <t>WES</t>
   </si>
   <si>
@@ -3247,9 +2995,6 @@
     <t>QGEN</t>
   </si>
   <si>
-    <t>LGIH</t>
-  </si>
-  <si>
     <t>WFRD</t>
   </si>
   <si>
@@ -3265,9 +3010,6 @@
     <t>QSI</t>
   </si>
   <si>
-    <t>LHX</t>
-  </si>
-  <si>
     <t>WHD</t>
   </si>
   <si>
@@ -3283,9 +3025,6 @@
     <t>RDY</t>
   </si>
   <si>
-    <t>LII</t>
-  </si>
-  <si>
     <t>WMB</t>
   </si>
   <si>
@@ -3301,9 +3040,6 @@
     <t>REGN</t>
   </si>
   <si>
-    <t>LMT</t>
-  </si>
-  <si>
     <t>XOM</t>
   </si>
   <si>
@@ -3319,9 +3055,6 @@
     <t>RMD</t>
   </si>
   <si>
-    <t>LPX</t>
-  </si>
-  <si>
     <t>YPF</t>
   </si>
   <si>
@@ -3337,9 +3070,6 @@
     <t>RPRX</t>
   </si>
   <si>
-    <t>LSTR</t>
-  </si>
-  <si>
     <t>MTLS</t>
   </si>
   <si>
@@ -3352,9 +3082,6 @@
     <t>RVTY</t>
   </si>
   <si>
-    <t>LUV</t>
-  </si>
-  <si>
     <t>MU</t>
   </si>
   <si>
@@ -3367,9 +3094,6 @@
     <t>RXDX</t>
   </si>
   <si>
-    <t>MAN</t>
-  </si>
-  <si>
     <t>NATI</t>
   </si>
   <si>
@@ -3382,9 +3106,6 @@
     <t>SDGR</t>
   </si>
   <si>
-    <t>MAS</t>
-  </si>
-  <si>
     <t>NET</t>
   </si>
   <si>
@@ -3397,9 +3118,6 @@
     <t>SGEN</t>
   </si>
   <si>
-    <t>MDU</t>
-  </si>
-  <si>
     <t>NEWR</t>
   </si>
   <si>
@@ -3412,9 +3130,6 @@
     <t>SLGC</t>
   </si>
   <si>
-    <t>MIDD</t>
-  </si>
-  <si>
     <t>NICE</t>
   </si>
   <si>
@@ -3427,9 +3142,6 @@
     <t>SNN</t>
   </si>
   <si>
-    <t>MLI</t>
-  </si>
-  <si>
     <t>NOVT</t>
   </si>
   <si>
@@ -3442,9 +3154,6 @@
     <t>SNY</t>
   </si>
   <si>
-    <t>MMM</t>
-  </si>
-  <si>
     <t>NOW</t>
   </si>
   <si>
@@ -3457,9 +3166,6 @@
     <t>SRPT</t>
   </si>
   <si>
-    <t>MMS</t>
-  </si>
-  <si>
     <t>NTAP</t>
   </si>
   <si>
@@ -3472,9 +3178,6 @@
     <t>STE</t>
   </si>
   <si>
-    <t>MSM</t>
-  </si>
-  <si>
     <t>NTNX</t>
   </si>
   <si>
@@ -3487,9 +3190,6 @@
     <t>SWAV</t>
   </si>
   <si>
-    <t>MTZ</t>
-  </si>
-  <si>
     <t>NVDA</t>
   </si>
   <si>
@@ -3502,9 +3202,6 @@
     <t>SWTX</t>
   </si>
   <si>
-    <t>NDSN</t>
-  </si>
-  <si>
     <t>NXPI</t>
   </si>
   <si>
@@ -3517,9 +3214,6 @@
     <t>SYK</t>
   </si>
   <si>
-    <t>NOC</t>
-  </si>
-  <si>
     <t>NXT</t>
   </si>
   <si>
@@ -3532,9 +3226,6 @@
     <t>TAK</t>
   </si>
   <si>
-    <t>NSC</t>
-  </si>
-  <si>
     <t>OKTA</t>
   </si>
   <si>
@@ -3547,9 +3238,6 @@
     <t>TDOC</t>
   </si>
   <si>
-    <t>NSP</t>
-  </si>
-  <si>
     <t>OLED</t>
   </si>
   <si>
@@ -3562,9 +3250,6 @@
     <t>TECH</t>
   </si>
   <si>
-    <t>NVEE</t>
-  </si>
-  <si>
     <t>ON</t>
   </si>
   <si>
@@ -3577,9 +3262,6 @@
     <t>TEVA</t>
   </si>
   <si>
-    <t>NVT</t>
-  </si>
-  <si>
     <t>ORCL</t>
   </si>
   <si>
@@ -3592,9 +3274,6 @@
     <t>TFX</t>
   </si>
   <si>
-    <t>OC</t>
-  </si>
-  <si>
     <t>OTEX</t>
   </si>
   <si>
@@ -3607,9 +3286,6 @@
     <t>TMCI</t>
   </si>
   <si>
-    <t>ODFL</t>
-  </si>
-  <si>
     <t>PANW</t>
   </si>
   <si>
@@ -3622,9 +3298,6 @@
     <t>TMO</t>
   </si>
   <si>
-    <t>OSK</t>
-  </si>
-  <si>
     <t>PATH</t>
   </si>
   <si>
@@ -3637,9 +3310,6 @@
     <t>TWST</t>
   </si>
   <si>
-    <t>OTIS</t>
-  </si>
-  <si>
     <t>PAYC</t>
   </si>
   <si>
@@ -3652,9 +3322,6 @@
     <t>TXG</t>
   </si>
   <si>
-    <t>PAYX</t>
-  </si>
-  <si>
     <t>PCOR</t>
   </si>
   <si>
@@ -3667,9 +3334,6 @@
     <t>UHS</t>
   </si>
   <si>
-    <t>PCAR</t>
-  </si>
-  <si>
     <t>PCTY</t>
   </si>
   <si>
@@ -3682,9 +3346,6 @@
     <t>UNH</t>
   </si>
   <si>
-    <t>PH</t>
-  </si>
-  <si>
     <t>PD</t>
   </si>
   <si>
@@ -3697,9 +3358,6 @@
     <t>UTHR</t>
   </si>
   <si>
-    <t>PLUG</t>
-  </si>
-  <si>
     <t>PDD</t>
   </si>
   <si>
@@ -3712,9 +3370,6 @@
     <t>VCYT</t>
   </si>
   <si>
-    <t>PNR</t>
-  </si>
-  <si>
     <t>PLTR</t>
   </si>
   <si>
@@ -3727,9 +3382,6 @@
     <t>VEEV</t>
   </si>
   <si>
-    <t>POOL</t>
-  </si>
-  <si>
     <t>PSTG</t>
   </si>
   <si>
@@ -3742,9 +3394,6 @@
     <t>VRTX</t>
   </si>
   <si>
-    <t>PWR</t>
-  </si>
-  <si>
     <t>PTC</t>
   </si>
   <si>
@@ -3757,9 +3406,6 @@
     <t>VTRS</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>QCOM</t>
   </si>
   <si>
@@ -3772,9 +3418,6 @@
     <t>WAT</t>
   </si>
   <si>
-    <t>RBA</t>
-  </si>
-  <si>
     <t>QRVO</t>
   </si>
   <si>
@@ -3787,9 +3430,6 @@
     <t>WBA</t>
   </si>
   <si>
-    <t>RELX</t>
-  </si>
-  <si>
     <t>RMBS</t>
   </si>
   <si>
@@ -3802,9 +3442,6 @@
     <t>WST</t>
   </si>
   <si>
-    <t>RHI</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -3817,9 +3454,6 @@
     <t>ZBH</t>
   </si>
   <si>
-    <t>ROK</t>
-  </si>
-  <si>
     <t>SAP</t>
   </si>
   <si>
@@ -3832,9 +3466,6 @@
     <t>ZTS</t>
   </si>
   <si>
-    <t>ROP</t>
-  </si>
-  <si>
     <t>SEDG</t>
   </si>
   <si>
@@ -3844,9 +3475,6 @@
     <t>TRUP</t>
   </si>
   <si>
-    <t>RRX</t>
-  </si>
-  <si>
     <t>SHOP</t>
   </si>
   <si>
@@ -3856,9 +3484,6 @@
     <t>TRV</t>
   </si>
   <si>
-    <t>RSG</t>
-  </si>
-  <si>
     <t>SLAB</t>
   </si>
   <si>
@@ -3868,9 +3493,6 @@
     <t>UBS</t>
   </si>
   <si>
-    <t>RTO</t>
-  </si>
-  <si>
     <t>SMAR</t>
   </si>
   <si>
@@ -3880,9 +3502,6 @@
     <t>UBSI</t>
   </si>
   <si>
-    <t>RTX</t>
-  </si>
-  <si>
     <t>SMCI</t>
   </si>
   <si>
@@ -3892,9 +3511,6 @@
     <t>UNM</t>
   </si>
   <si>
-    <t>RYAAY</t>
-  </si>
-  <si>
     <t>SNOW</t>
   </si>
   <si>
@@ -3904,9 +3520,6 @@
     <t>UPST</t>
   </si>
   <si>
-    <t>SAIA</t>
-  </si>
-  <si>
     <t>SNPS</t>
   </si>
   <si>
@@ -3916,9 +3529,6 @@
     <t>USB</t>
   </si>
   <si>
-    <t>SAVE</t>
-  </si>
-  <si>
     <t>SNX</t>
   </si>
   <si>
@@ -3928,9 +3538,6 @@
     <t>UWMC</t>
   </si>
   <si>
-    <t>SITE</t>
-  </si>
-  <si>
     <t>SONY</t>
   </si>
   <si>
@@ -3940,9 +3547,6 @@
     <t>V</t>
   </si>
   <si>
-    <t>SNA</t>
-  </si>
-  <si>
     <t>SPLK</t>
   </si>
   <si>
@@ -3952,9 +3556,6 @@
     <t>VIRT</t>
   </si>
   <si>
-    <t>SNCY</t>
-  </si>
-  <si>
     <t>SQ</t>
   </si>
   <si>
@@ -3964,9 +3565,6 @@
     <t>VLY</t>
   </si>
   <si>
-    <t>SNDR</t>
-  </si>
-  <si>
     <t>SSNC</t>
   </si>
   <si>
@@ -3976,9 +3574,6 @@
     <t>VOYA</t>
   </si>
   <si>
-    <t>SPCE</t>
-  </si>
-  <si>
     <t>SSYS</t>
   </si>
   <si>
@@ -3988,9 +3583,6 @@
     <t>WAFD</t>
   </si>
   <si>
-    <t>SPR</t>
-  </si>
-  <si>
     <t>ST</t>
   </si>
   <si>
@@ -4000,9 +3592,6 @@
     <t>WAL</t>
   </si>
   <si>
-    <t>SRCL</t>
-  </si>
-  <si>
     <t>STM</t>
   </si>
   <si>
@@ -4012,9 +3601,6 @@
     <t>WBS</t>
   </si>
   <si>
-    <t>STN</t>
-  </si>
-  <si>
     <t>STX</t>
   </si>
   <si>
@@ -4024,9 +3610,6 @@
     <t>WFC</t>
   </si>
   <si>
-    <t>SWK</t>
-  </si>
-  <si>
     <t>SWKS</t>
   </si>
   <si>
@@ -4036,9 +3619,6 @@
     <t>WRB</t>
   </si>
   <si>
-    <t>TDG</t>
-  </si>
-  <si>
     <t>TDC</t>
   </si>
   <si>
@@ -4048,9 +3628,6 @@
     <t>WT</t>
   </si>
   <si>
-    <t>TEX</t>
-  </si>
-  <si>
     <t>TDY</t>
   </si>
   <si>
@@ -4060,9 +3637,6 @@
     <t>WTFC</t>
   </si>
   <si>
-    <t>TFII</t>
-  </si>
-  <si>
     <t>TEAM</t>
   </si>
   <si>
@@ -4072,9 +3646,6 @@
     <t>WU</t>
   </si>
   <si>
-    <t>TKR</t>
-  </si>
-  <si>
     <t>TEL</t>
   </si>
   <si>
@@ -4084,9 +3655,6 @@
     <t>XP</t>
   </si>
   <si>
-    <t>TNET</t>
-  </si>
-  <si>
     <t>TENB</t>
   </si>
   <si>
@@ -4096,229 +3664,148 @@
     <t>ZION</t>
   </si>
   <si>
-    <t>TREX</t>
-  </si>
-  <si>
     <t>TER</t>
   </si>
   <si>
     <t>TCOM</t>
   </si>
   <si>
-    <t>TRI</t>
-  </si>
-  <si>
     <t>TOST</t>
   </si>
   <si>
     <t>THO</t>
   </si>
   <si>
-    <t>TRTN</t>
-  </si>
-  <si>
     <t>TRMB</t>
   </si>
   <si>
     <t>TJX</t>
   </si>
   <si>
-    <t>TRU</t>
-  </si>
-  <si>
     <t>TSM</t>
   </si>
   <si>
     <t>TMHC</t>
   </si>
   <si>
-    <t>TT</t>
-  </si>
-  <si>
     <t>TXN</t>
   </si>
   <si>
     <t>TNL</t>
   </si>
   <si>
-    <t>TTC</t>
-  </si>
-  <si>
     <t>TYL</t>
   </si>
   <si>
     <t>TOL</t>
   </si>
   <si>
-    <t>TTEK</t>
-  </si>
-  <si>
     <t>U</t>
   </si>
   <si>
     <t>TPH</t>
   </si>
   <si>
-    <t>TXT</t>
-  </si>
-  <si>
     <t>UBER</t>
   </si>
   <si>
     <t>TPR</t>
   </si>
   <si>
-    <t>UAL</t>
-  </si>
-  <si>
     <t>UMC</t>
   </si>
   <si>
     <t>TPX</t>
   </si>
   <si>
-    <t>UHAL</t>
-  </si>
-  <si>
     <t>VMW</t>
   </si>
   <si>
     <t>TSCO</t>
   </si>
   <si>
-    <t>ULCC</t>
-  </si>
-  <si>
     <t>VRSN</t>
   </si>
   <si>
     <t>TSLA</t>
   </si>
   <si>
-    <t>UNP</t>
-  </si>
-  <si>
     <t>WDAY</t>
   </si>
   <si>
     <t>TXRH</t>
   </si>
   <si>
-    <t>UPS</t>
-  </si>
-  <si>
     <t>WDC</t>
   </si>
   <si>
     <t>UA</t>
   </si>
   <si>
-    <t>URI</t>
-  </si>
-  <si>
     <t>WEX</t>
   </si>
   <si>
     <t>ULTA</t>
   </si>
   <si>
-    <t>VRSK</t>
-  </si>
-  <si>
     <t>WIX</t>
   </si>
   <si>
     <t>VAC</t>
   </si>
   <si>
-    <t>VRT</t>
-  </si>
-  <si>
     <t>WOLF</t>
   </si>
   <si>
     <t>VC</t>
   </si>
   <si>
-    <t>WAB</t>
-  </si>
-  <si>
     <t>XM</t>
   </si>
   <si>
     <t>VFC</t>
   </si>
   <si>
-    <t>WCC</t>
-  </si>
-  <si>
     <t>YMM</t>
   </si>
   <si>
     <t>VIPS</t>
   </si>
   <si>
-    <t>WCN</t>
-  </si>
-  <si>
     <t>ZBRA</t>
   </si>
   <si>
     <t>W</t>
   </si>
   <si>
-    <t>WM</t>
-  </si>
-  <si>
     <t>ZI</t>
   </si>
   <si>
     <t>WEN</t>
   </si>
   <si>
-    <t>WMS</t>
-  </si>
-  <si>
     <t>ZM</t>
   </si>
   <si>
     <t>WH</t>
   </si>
   <si>
-    <t>WSO</t>
-  </si>
-  <si>
     <t>ZS</t>
   </si>
   <si>
     <t>WHR</t>
   </si>
   <si>
-    <t>WWD</t>
-  </si>
-  <si>
     <t>WING</t>
   </si>
   <si>
-    <t>XPO</t>
-  </si>
-  <si>
     <t>WRK</t>
   </si>
   <si>
-    <t>XYL</t>
-  </si>
-  <si>
     <t>WSM</t>
   </si>
   <si>
-    <t>ZTO</t>
-  </si>
-  <si>
     <t>WYNN</t>
-  </si>
-  <si>
-    <t>ZWS</t>
   </si>
   <si>
     <t>XPEV</t>
@@ -4335,7 +3822,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4353,6 +3840,12 @@
       <sz val="11"/>
       <color rgb="FF232a31"/>
       <name val="&quot;Yahoo Sans Finance&quot;"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4408,7 +3901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4425,8 +3918,17 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4736,32 +4238,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -5633,7 +5135,7 @@
       <c r="F18" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="6" t="s">
         <v>193</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -5683,20 +5185,20 @@
       <c r="F19" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -5716,37 +5218,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -5766,37 +5268,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="G21" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -5816,37 +5318,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="G22" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -5866,37 +5368,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="G23" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -5916,37 +5418,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="G24" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
@@ -5966,37 +5468,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -6016,37 +5518,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>285</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -6066,37 +5568,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -6116,37 +5618,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -6166,37 +5668,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>314</v>
+        <v>303</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
@@ -6216,37 +5718,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="3" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>325</v>
+        <v>313</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
@@ -6266,37 +5768,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>336</v>
+        <v>323</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
@@ -6316,37 +5818,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="3" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>347</v>
+        <v>333</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
@@ -6366,37 +5868,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="3" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>358</v>
+        <v>343</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -6416,37 +5918,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="3" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>369</v>
+        <v>353</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
@@ -6466,37 +5968,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="3" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>380</v>
+        <v>363</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
@@ -6516,37 +6018,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="3" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>391</v>
+        <v>373</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
@@ -6566,37 +6068,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="2" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>402</v>
+        <v>383</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -6616,37 +6118,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="3" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>413</v>
+        <v>393</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
@@ -6666,37 +6168,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="2" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>424</v>
+        <v>403</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -6716,37 +6218,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="2" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>435</v>
+        <v>413</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
@@ -6764,39 +6266,39 @@
       <c r="Y40" s="4"/>
       <c r="Z40" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="21">
       <c r="A41" s="2" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>446</v>
+        <v>423</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -6814,39 +6316,39 @@
       <c r="Y41" s="4"/>
       <c r="Z41" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="21">
       <c r="A42" s="3" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>457</v>
+        <v>433</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
@@ -6864,39 +6366,39 @@
       <c r="Y42" s="4"/>
       <c r="Z42" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="21">
       <c r="A43" s="3" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>468</v>
+        <v>443</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -6914,39 +6416,39 @@
       <c r="Y43" s="4"/>
       <c r="Z43" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="21">
       <c r="A44" s="3" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>479</v>
+        <v>453</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
@@ -6964,39 +6466,39 @@
       <c r="Y44" s="4"/>
       <c r="Z44" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="21">
       <c r="A45" s="2" t="s">
-        <v>484</v>
+        <v>458</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>485</v>
+        <v>459</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>487</v>
+        <v>461</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>490</v>
+        <v>463</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>491</v>
+        <v>464</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>492</v>
+        <v>465</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>494</v>
+        <v>467</v>
       </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
@@ -7014,39 +6516,39 @@
       <c r="Y45" s="4"/>
       <c r="Z45" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="21">
       <c r="A46" s="3" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>501</v>
+        <v>473</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>503</v>
+        <v>475</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
@@ -7064,39 +6566,39 @@
       <c r="Y46" s="4"/>
       <c r="Z46" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="21">
       <c r="A47" s="2" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>507</v>
+        <v>479</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>509</v>
+        <v>481</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>510</v>
+        <v>482</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>512</v>
+        <v>483</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>513</v>
+        <v>484</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>514</v>
+        <v>485</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>515</v>
+        <v>486</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>516</v>
+        <v>487</v>
       </c>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
@@ -7114,39 +6616,39 @@
       <c r="Y47" s="4"/>
       <c r="Z47" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="21">
       <c r="A48" s="2" t="s">
-        <v>517</v>
+        <v>488</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>518</v>
+        <v>489</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>519</v>
+        <v>490</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>520</v>
+        <v>491</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>521</v>
+        <v>492</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>523</v>
+        <v>493</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>525</v>
+        <v>495</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
@@ -7164,39 +6666,39 @@
       <c r="Y48" s="4"/>
       <c r="Z48" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="21">
       <c r="A49" s="3" t="s">
-        <v>528</v>
+        <v>498</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>529</v>
+        <v>499</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>534</v>
+        <v>503</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>535</v>
+        <v>504</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>536</v>
+        <v>505</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>537</v>
+        <v>506</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>538</v>
+        <v>507</v>
       </c>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
@@ -7214,39 +6716,39 @@
       <c r="Y49" s="4"/>
       <c r="Z49" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="21">
       <c r="A50" s="3" t="s">
-        <v>539</v>
+        <v>508</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>540</v>
+        <v>509</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>542</v>
+        <v>511</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>543</v>
+        <v>512</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>545</v>
+        <v>513</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>546</v>
+        <v>514</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>548</v>
+        <v>516</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>549</v>
+        <v>517</v>
       </c>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
@@ -7264,39 +6766,39 @@
       <c r="Y50" s="4"/>
       <c r="Z50" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="21">
       <c r="A51" s="3" t="s">
-        <v>550</v>
+        <v>518</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>551</v>
+        <v>519</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>552</v>
+        <v>520</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>553</v>
+        <v>521</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>554</v>
+        <v>522</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>556</v>
+        <v>523</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>557</v>
+        <v>524</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>558</v>
+        <v>525</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>559</v>
+        <v>526</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>560</v>
+        <v>527</v>
       </c>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
@@ -7314,39 +6816,39 @@
       <c r="Y51" s="4"/>
       <c r="Z51" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="21">
       <c r="A52" s="3" t="s">
-        <v>561</v>
+        <v>528</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>562</v>
+        <v>529</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>563</v>
+        <v>530</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>564</v>
+        <v>531</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>565</v>
+        <v>532</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>567</v>
+        <v>533</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>568</v>
+        <v>534</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>569</v>
+        <v>535</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>570</v>
+        <v>536</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>571</v>
+        <v>537</v>
       </c>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
@@ -7364,39 +6866,39 @@
       <c r="Y52" s="4"/>
       <c r="Z52" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="21">
       <c r="A53" s="3" t="s">
-        <v>572</v>
+        <v>538</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>573</v>
+        <v>539</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>574</v>
+        <v>540</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>575</v>
+        <v>541</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>576</v>
+        <v>542</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>578</v>
+        <v>543</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>579</v>
+        <v>544</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>580</v>
+        <v>545</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>581</v>
+        <v>546</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>582</v>
+        <v>547</v>
       </c>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
@@ -7414,39 +6916,39 @@
       <c r="Y53" s="4"/>
       <c r="Z53" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="21">
       <c r="A54" s="3" t="s">
-        <v>583</v>
+        <v>548</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>584</v>
+        <v>549</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>585</v>
+        <v>550</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>586</v>
+        <v>551</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>587</v>
+        <v>552</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>589</v>
+        <v>553</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>590</v>
+        <v>554</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
@@ -7466,37 +6968,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="3" t="s">
-        <v>594</v>
+        <v>558</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>595</v>
+        <v>559</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>597</v>
+        <v>561</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>598</v>
+        <v>562</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>600</v>
+        <v>563</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>601</v>
+        <v>564</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>602</v>
+        <v>565</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>603</v>
+        <v>566</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>604</v>
+        <v>567</v>
       </c>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
@@ -7516,37 +7018,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="3" t="s">
-        <v>605</v>
+        <v>568</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>611</v>
+        <v>573</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>612</v>
+        <v>574</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>613</v>
+        <v>575</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>614</v>
+        <v>576</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>615</v>
+        <v>577</v>
       </c>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
@@ -7566,37 +7068,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="3" t="s">
-        <v>616</v>
+        <v>578</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>617</v>
+        <v>579</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>618</v>
+        <v>580</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>619</v>
+        <v>581</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>620</v>
+        <v>582</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>622</v>
+        <v>583</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>623</v>
+        <v>584</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>624</v>
+        <v>585</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>625</v>
+        <v>586</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>626</v>
+        <v>587</v>
       </c>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
@@ -7616,37 +7118,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="3" t="s">
-        <v>627</v>
+        <v>588</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>628</v>
+        <v>589</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>629</v>
+        <v>590</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>630</v>
+        <v>591</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>631</v>
+        <v>592</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>633</v>
+        <v>593</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>634</v>
+        <v>594</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>635</v>
+        <v>595</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>636</v>
+        <v>596</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>637</v>
+        <v>597</v>
       </c>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
@@ -7666,37 +7168,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="3" t="s">
-        <v>638</v>
+        <v>598</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>639</v>
+        <v>599</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>641</v>
+        <v>601</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>642</v>
+        <v>602</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>644</v>
+        <v>603</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>645</v>
+        <v>604</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>646</v>
+        <v>605</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>647</v>
+        <v>606</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>648</v>
+        <v>607</v>
       </c>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
@@ -7714,39 +7216,39 @@
       <c r="Y59" s="4"/>
       <c r="Z59" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="21">
       <c r="A60" s="3" t="s">
-        <v>649</v>
+        <v>608</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>650</v>
+        <v>609</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>651</v>
+        <v>610</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>652</v>
+        <v>611</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>653</v>
+        <v>612</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>655</v>
+        <v>613</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>656</v>
+        <v>614</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>657</v>
+        <v>615</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>658</v>
+        <v>616</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>659</v>
+        <v>617</v>
       </c>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
@@ -7764,39 +7266,39 @@
       <c r="Y60" s="4"/>
       <c r="Z60" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="21">
       <c r="A61" s="3" t="s">
-        <v>660</v>
+        <v>618</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>661</v>
+        <v>619</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>662</v>
+        <v>620</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>663</v>
+        <v>621</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>666</v>
+        <v>623</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>667</v>
+        <v>624</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>668</v>
+        <v>625</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>669</v>
+        <v>626</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>670</v>
+        <v>627</v>
       </c>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
@@ -7814,39 +7316,39 @@
       <c r="Y61" s="4"/>
       <c r="Z61" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="21">
       <c r="A62" s="2" t="s">
-        <v>671</v>
+        <v>628</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>672</v>
+        <v>629</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>673</v>
+        <v>630</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>674</v>
+        <v>631</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>675</v>
+        <v>632</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>677</v>
+        <v>633</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>678</v>
+        <v>634</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>679</v>
+        <v>635</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>680</v>
+        <v>636</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>681</v>
+        <v>637</v>
       </c>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
@@ -7864,39 +7366,39 @@
       <c r="Y62" s="4"/>
       <c r="Z62" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="21">
       <c r="A63" s="3" t="s">
-        <v>682</v>
+        <v>638</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>683</v>
+        <v>639</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>684</v>
+        <v>640</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>685</v>
+        <v>641</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>686</v>
+        <v>642</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>688</v>
+        <v>643</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>689</v>
+        <v>644</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>690</v>
+        <v>645</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>691</v>
+        <v>646</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>692</v>
+        <v>647</v>
       </c>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
@@ -7914,39 +7416,39 @@
       <c r="Y63" s="4"/>
       <c r="Z63" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="21">
       <c r="A64" s="3" t="s">
-        <v>693</v>
+        <v>648</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>694</v>
+        <v>649</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>695</v>
+        <v>650</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>696</v>
+        <v>651</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>697</v>
+        <v>652</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>699</v>
+        <v>653</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>700</v>
+        <v>654</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>701</v>
+        <v>655</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>702</v>
+        <v>656</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>703</v>
+        <v>657</v>
       </c>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
@@ -7964,39 +7466,39 @@
       <c r="Y64" s="4"/>
       <c r="Z64" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="21">
       <c r="A65" s="3" t="s">
-        <v>704</v>
+        <v>658</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>705</v>
+        <v>659</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>706</v>
+        <v>660</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>707</v>
+        <v>661</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>708</v>
+        <v>662</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>710</v>
+        <v>663</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>711</v>
+        <v>664</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>712</v>
+        <v>665</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>713</v>
+        <v>666</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>714</v>
+        <v>667</v>
       </c>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
@@ -8014,39 +7516,39 @@
       <c r="Y65" s="4"/>
       <c r="Z65" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="21">
       <c r="A66" s="3" t="s">
-        <v>715</v>
+        <v>668</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>716</v>
+        <v>669</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>717</v>
+        <v>670</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>719</v>
+        <v>672</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>721</v>
+        <v>673</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>722</v>
+        <v>674</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>723</v>
+        <v>675</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>724</v>
+        <v>676</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>725</v>
+        <v>677</v>
       </c>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
@@ -8064,39 +7566,39 @@
       <c r="Y66" s="4"/>
       <c r="Z66" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="21">
       <c r="A67" s="2" t="s">
-        <v>726</v>
+        <v>678</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>727</v>
+        <v>679</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>728</v>
+        <v>680</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>729</v>
+        <v>681</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>730</v>
+        <v>682</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>732</v>
+        <v>683</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>733</v>
+        <v>684</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>734</v>
+        <v>685</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>735</v>
+        <v>686</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>736</v>
+        <v>687</v>
       </c>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
@@ -8114,39 +7616,39 @@
       <c r="Y67" s="4"/>
       <c r="Z67" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="21">
       <c r="A68" s="3" t="s">
-        <v>737</v>
+        <v>688</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>738</v>
+        <v>689</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>739</v>
+        <v>690</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>740</v>
+        <v>691</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>741</v>
+        <v>692</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>743</v>
+        <v>693</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>744</v>
+        <v>694</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>745</v>
+        <v>695</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>746</v>
+        <v>696</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>747</v>
+        <v>697</v>
       </c>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
@@ -8164,39 +7666,39 @@
       <c r="Y68" s="4"/>
       <c r="Z68" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="21">
       <c r="A69" s="3" t="s">
-        <v>748</v>
+        <v>698</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>749</v>
+        <v>699</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>751</v>
+        <v>701</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>752</v>
+        <v>702</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>754</v>
+        <v>703</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>755</v>
+        <v>704</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>756</v>
+        <v>705</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>757</v>
+        <v>706</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>758</v>
+        <v>707</v>
       </c>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
@@ -8214,39 +7716,39 @@
       <c r="Y69" s="4"/>
       <c r="Z69" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="21">
       <c r="A70" s="3" t="s">
-        <v>759</v>
+        <v>708</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>760</v>
+        <v>709</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>761</v>
+        <v>710</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>762</v>
+        <v>711</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>763</v>
+        <v>712</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>765</v>
+        <v>713</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>766</v>
+        <v>714</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>767</v>
+        <v>715</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>768</v>
+        <v>716</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>769</v>
+        <v>717</v>
       </c>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
@@ -8264,39 +7766,39 @@
       <c r="Y70" s="4"/>
       <c r="Z70" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="21">
       <c r="A71" s="3" t="s">
-        <v>770</v>
+        <v>718</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>771</v>
+        <v>719</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>772</v>
+        <v>720</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>773</v>
+        <v>721</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>774</v>
+        <v>722</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>776</v>
+        <v>723</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>777</v>
+        <v>724</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>778</v>
+        <v>725</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>779</v>
+        <v>726</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>780</v>
+        <v>727</v>
       </c>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
@@ -8314,39 +7816,39 @@
       <c r="Y71" s="4"/>
       <c r="Z71" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="21">
       <c r="A72" s="3" t="s">
-        <v>781</v>
+        <v>728</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>782</v>
+        <v>729</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>783</v>
+        <v>730</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>784</v>
+        <v>731</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>785</v>
+        <v>732</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>787</v>
+        <v>733</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>788</v>
+        <v>734</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>789</v>
+        <v>735</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>790</v>
+        <v>736</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>791</v>
+        <v>737</v>
       </c>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
@@ -8364,39 +7866,39 @@
       <c r="Y72" s="4"/>
       <c r="Z72" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="21">
       <c r="A73" s="3" t="s">
-        <v>792</v>
+        <v>738</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>793</v>
+        <v>739</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>794</v>
+        <v>740</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>795</v>
+        <v>741</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>796</v>
+        <v>742</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>798</v>
+        <v>743</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>799</v>
+        <v>744</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>800</v>
+        <v>745</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>801</v>
+        <v>746</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>802</v>
+        <v>747</v>
       </c>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
@@ -8414,37 +7916,37 @@
       <c r="Y73" s="4"/>
       <c r="Z73" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="21">
       <c r="A74" s="3" t="s">
-        <v>803</v>
+        <v>748</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>804</v>
+        <v>749</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>805</v>
+        <v>750</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>806</v>
+        <v>751</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>807</v>
+        <v>752</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>809</v>
+        <v>753</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>810</v>
+        <v>754</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>811</v>
+        <v>755</v>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="3" t="s">
-        <v>812</v>
+        <v>756</v>
       </c>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
@@ -8462,37 +7964,37 @@
       <c r="Y74" s="4"/>
       <c r="Z74" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="21">
       <c r="A75" s="3" t="s">
-        <v>813</v>
+        <v>757</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>814</v>
+        <v>758</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>815</v>
+        <v>759</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>816</v>
+        <v>760</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>817</v>
+        <v>761</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>819</v>
+        <v>762</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>820</v>
+        <v>763</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>821</v>
+        <v>764</v>
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3" t="s">
-        <v>822</v>
+        <v>765</v>
       </c>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
@@ -8510,37 +8012,37 @@
       <c r="Y75" s="4"/>
       <c r="Z75" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="21">
       <c r="A76" s="3" t="s">
-        <v>823</v>
+        <v>766</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>824</v>
+        <v>767</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>825</v>
+        <v>768</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>826</v>
+        <v>769</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>827</v>
+        <v>770</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>829</v>
+        <v>771</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>830</v>
+        <v>772</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>831</v>
+        <v>773</v>
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="3" t="s">
-        <v>832</v>
+        <v>774</v>
       </c>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
@@ -8558,37 +8060,37 @@
       <c r="Y76" s="4"/>
       <c r="Z76" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="21">
       <c r="A77" s="3" t="s">
-        <v>833</v>
+        <v>775</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>834</v>
+        <v>776</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>835</v>
+        <v>777</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>836</v>
+        <v>778</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>837</v>
+        <v>779</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>839</v>
+        <v>780</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>840</v>
+        <v>781</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>841</v>
+        <v>782</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3" t="s">
-        <v>842</v>
+        <v>783</v>
       </c>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
@@ -8606,37 +8108,37 @@
       <c r="Y77" s="4"/>
       <c r="Z77" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="21">
       <c r="A78" s="3" t="s">
-        <v>843</v>
+        <v>784</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>844</v>
+        <v>785</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>845</v>
+        <v>786</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>846</v>
+        <v>787</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>847</v>
+        <v>788</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>849</v>
+        <v>789</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>850</v>
+        <v>790</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>851</v>
+        <v>791</v>
       </c>
       <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
-        <v>852</v>
+        <v>792</v>
       </c>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
@@ -8654,37 +8156,37 @@
       <c r="Y78" s="4"/>
       <c r="Z78" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="21">
       <c r="A79" s="3" t="s">
-        <v>853</v>
+        <v>793</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>854</v>
+        <v>794</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>855</v>
+        <v>795</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>856</v>
+        <v>796</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>857</v>
+        <v>797</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>859</v>
+        <v>798</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>860</v>
+        <v>799</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>861</v>
+        <v>800</v>
       </c>
       <c r="J79" s="5"/>
       <c r="K79" s="3" t="s">
-        <v>862</v>
+        <v>801</v>
       </c>
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
@@ -8702,37 +8204,37 @@
       <c r="Y79" s="4"/>
       <c r="Z79" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="21">
       <c r="A80" s="3" t="s">
-        <v>863</v>
+        <v>802</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>864</v>
+        <v>803</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>865</v>
+        <v>804</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>866</v>
+        <v>805</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>867</v>
+        <v>806</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>869</v>
+        <v>807</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>870</v>
+        <v>808</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>871</v>
+        <v>809</v>
       </c>
       <c r="J80" s="5"/>
       <c r="K80" s="3" t="s">
-        <v>872</v>
+        <v>810</v>
       </c>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
@@ -8750,37 +8252,37 @@
       <c r="Y80" s="4"/>
       <c r="Z80" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="21">
       <c r="A81" s="3" t="s">
-        <v>873</v>
+        <v>811</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>874</v>
+        <v>812</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>875</v>
+        <v>813</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>876</v>
+        <v>814</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>877</v>
+        <v>815</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>879</v>
+        <v>816</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>880</v>
+        <v>817</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>881</v>
+        <v>818</v>
       </c>
       <c r="J81" s="3"/>
       <c r="K81" s="3" t="s">
-        <v>882</v>
+        <v>819</v>
       </c>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
@@ -8798,37 +8300,37 @@
       <c r="Y81" s="4"/>
       <c r="Z81" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="21">
       <c r="A82" s="2" t="s">
-        <v>883</v>
+        <v>820</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>884</v>
+        <v>821</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>885</v>
+        <v>822</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>886</v>
+        <v>823</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>887</v>
+        <v>824</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>888</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>889</v>
+        <v>825</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>890</v>
+        <v>826</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>891</v>
+        <v>827</v>
       </c>
       <c r="J82" s="3"/>
       <c r="K82" s="3" t="s">
-        <v>892</v>
+        <v>828</v>
       </c>
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
@@ -8846,37 +8348,37 @@
       <c r="Y82" s="4"/>
       <c r="Z82" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="21">
       <c r="A83" s="2" t="s">
-        <v>893</v>
+        <v>829</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>894</v>
+        <v>830</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>895</v>
+        <v>831</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>896</v>
+        <v>832</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>897</v>
+        <v>833</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>898</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>899</v>
+        <v>834</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>900</v>
+        <v>835</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>901</v>
+        <v>836</v>
       </c>
       <c r="J83" s="3"/>
       <c r="K83" s="3" t="s">
-        <v>902</v>
+        <v>837</v>
       </c>
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
@@ -8894,37 +8396,37 @@
       <c r="Y83" s="4"/>
       <c r="Z83" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="21">
       <c r="A84" s="3" t="s">
-        <v>903</v>
+        <v>838</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>904</v>
+        <v>839</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>905</v>
+        <v>840</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>906</v>
+        <v>841</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>907</v>
+        <v>842</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>908</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>909</v>
+        <v>843</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>910</v>
+        <v>844</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>911</v>
+        <v>845</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3" t="s">
-        <v>912</v>
+        <v>846</v>
       </c>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
@@ -8942,37 +8444,37 @@
       <c r="Y84" s="4"/>
       <c r="Z84" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="21">
       <c r="A85" s="2" t="s">
-        <v>913</v>
+        <v>847</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>914</v>
+        <v>848</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>915</v>
+        <v>849</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>916</v>
+        <v>850</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>917</v>
+        <v>851</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>918</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>919</v>
+        <v>852</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>920</v>
+        <v>853</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>921</v>
+        <v>854</v>
       </c>
       <c r="J85" s="3"/>
       <c r="K85" s="3" t="s">
-        <v>922</v>
+        <v>855</v>
       </c>
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
@@ -8990,37 +8492,37 @@
       <c r="Y85" s="4"/>
       <c r="Z85" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="21">
       <c r="A86" s="3" t="s">
-        <v>923</v>
+        <v>856</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>924</v>
+        <v>857</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>925</v>
+        <v>858</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>926</v>
+        <v>859</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>927</v>
+        <v>860</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>929</v>
+        <v>861</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>930</v>
+        <v>862</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>931</v>
+        <v>863</v>
       </c>
       <c r="J86" s="3"/>
       <c r="K86" s="3" t="s">
-        <v>932</v>
+        <v>864</v>
       </c>
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
@@ -9038,37 +8540,37 @@
       <c r="Y86" s="4"/>
       <c r="Z86" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="21">
       <c r="A87" s="2" t="s">
-        <v>933</v>
+        <v>865</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>934</v>
+        <v>866</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>935</v>
+        <v>867</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>936</v>
+        <v>868</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>937</v>
+        <v>869</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>938</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>939</v>
+        <v>870</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>940</v>
+        <v>871</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>941</v>
+        <v>872</v>
       </c>
       <c r="J87" s="3"/>
       <c r="K87" s="3" t="s">
-        <v>942</v>
+        <v>873</v>
       </c>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
@@ -9086,37 +8588,37 @@
       <c r="Y87" s="4"/>
       <c r="Z87" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="21">
       <c r="A88" s="2" t="s">
-        <v>943</v>
+        <v>874</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>944</v>
+        <v>875</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>945</v>
+        <v>876</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>946</v>
+        <v>877</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>947</v>
+        <v>878</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>949</v>
+        <v>879</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>950</v>
+        <v>880</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>951</v>
+        <v>881</v>
       </c>
       <c r="J88" s="3"/>
       <c r="K88" s="3" t="s">
-        <v>952</v>
+        <v>882</v>
       </c>
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
@@ -9136,35 +8638,35 @@
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="2" t="s">
-        <v>953</v>
+        <v>883</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>954</v>
+        <v>884</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>955</v>
+        <v>885</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>956</v>
+        <v>886</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>957</v>
+        <v>887</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>959</v>
+        <v>888</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>960</v>
+        <v>889</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>961</v>
+        <v>890</v>
       </c>
       <c r="J89" s="3"/>
       <c r="K89" s="3" t="s">
-        <v>962</v>
+        <v>891</v>
       </c>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
@@ -9184,33 +8686,33 @@
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="3" t="s">
-        <v>963</v>
+        <v>892</v>
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="3" t="s">
-        <v>964</v>
+        <v>893</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>965</v>
+        <v>894</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>966</v>
+        <v>895</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>968</v>
+        <v>896</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>969</v>
+        <v>897</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>970</v>
+        <v>898</v>
       </c>
       <c r="J90" s="3"/>
       <c r="K90" s="3" t="s">
-        <v>971</v>
+        <v>899</v>
       </c>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
@@ -9230,33 +8732,33 @@
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="2" t="s">
-        <v>972</v>
+        <v>900</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3" t="s">
-        <v>973</v>
+        <v>901</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>974</v>
+        <v>902</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>975</v>
+        <v>903</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>976</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>977</v>
+        <v>904</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>978</v>
+        <v>905</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>979</v>
+        <v>906</v>
       </c>
       <c r="J91" s="3"/>
       <c r="K91" s="3" t="s">
-        <v>980</v>
+        <v>907</v>
       </c>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
@@ -9276,33 +8778,33 @@
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="3" t="s">
-        <v>981</v>
+        <v>908</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3" t="s">
-        <v>982</v>
+        <v>909</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>983</v>
+        <v>910</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>984</v>
+        <v>911</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>985</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>986</v>
+        <v>912</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>987</v>
+        <v>913</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>988</v>
+        <v>914</v>
       </c>
       <c r="J92" s="3"/>
       <c r="K92" s="3" t="s">
-        <v>989</v>
+        <v>915</v>
       </c>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
@@ -9322,33 +8824,33 @@
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="3" t="s">
-        <v>990</v>
+        <v>916</v>
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="3" t="s">
-        <v>991</v>
+        <v>917</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>992</v>
+        <v>918</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>993</v>
+        <v>919</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>994</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>995</v>
+        <v>920</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>996</v>
+        <v>921</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>997</v>
+        <v>922</v>
       </c>
       <c r="J93" s="3"/>
       <c r="K93" s="3" t="s">
-        <v>998</v>
+        <v>923</v>
       </c>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
@@ -9368,33 +8870,33 @@
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="3" t="s">
-        <v>999</v>
+        <v>924</v>
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="3" t="s">
-        <v>1000</v>
+        <v>925</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>1001</v>
+        <v>926</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>1002</v>
+        <v>927</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>1004</v>
+        <v>928</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>1005</v>
+        <v>929</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>1006</v>
+        <v>930</v>
       </c>
       <c r="J94" s="3"/>
       <c r="K94" s="3" t="s">
-        <v>1007</v>
+        <v>931</v>
       </c>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
@@ -9414,33 +8916,33 @@
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="3" t="s">
-        <v>1008</v>
+        <v>932</v>
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="3" t="s">
-        <v>1009</v>
+        <v>933</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>1010</v>
+        <v>934</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>1011</v>
+        <v>935</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>1013</v>
+        <v>936</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>1014</v>
+        <v>937</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>1015</v>
+        <v>938</v>
       </c>
       <c r="J95" s="3"/>
       <c r="K95" s="3" t="s">
-        <v>1016</v>
+        <v>939</v>
       </c>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
@@ -9460,33 +8962,33 @@
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="3" t="s">
-        <v>1017</v>
+        <v>940</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="3" t="s">
-        <v>1018</v>
+        <v>941</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>1019</v>
+        <v>942</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>1020</v>
+        <v>943</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>1021</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>1022</v>
+        <v>944</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>1023</v>
+        <v>945</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>1024</v>
+        <v>946</v>
       </c>
       <c r="J96" s="3"/>
       <c r="K96" s="3" t="s">
-        <v>1025</v>
+        <v>947</v>
       </c>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
@@ -9506,33 +9008,33 @@
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="3" t="s">
-        <v>1026</v>
+        <v>948</v>
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="3" t="s">
-        <v>1027</v>
+        <v>949</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>1028</v>
+        <v>950</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>1029</v>
+        <v>951</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>1030</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>1031</v>
+        <v>952</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>1032</v>
+        <v>953</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>1033</v>
+        <v>954</v>
       </c>
       <c r="J97" s="3"/>
       <c r="K97" s="3" t="s">
-        <v>1034</v>
+        <v>955</v>
       </c>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
@@ -9552,29 +9054,29 @@
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="3" t="s">
-        <v>1035</v>
+        <v>956</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="3" t="s">
-        <v>1036</v>
+        <v>957</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>1037</v>
+        <v>958</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>1038</v>
+        <v>959</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>1039</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>1040</v>
+        <v>960</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>1041</v>
+        <v>961</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>1042</v>
+        <v>962</v>
       </c>
       <c r="J98" s="3"/>
       <c r="K98" s="5"/>
@@ -9596,29 +9098,29 @@
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="3" t="s">
-        <v>1043</v>
+        <v>963</v>
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="3" t="s">
-        <v>1044</v>
+        <v>964</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>1045</v>
+        <v>965</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>1046</v>
+        <v>966</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>1048</v>
+        <v>967</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>1049</v>
+        <v>968</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>1050</v>
+        <v>969</v>
       </c>
       <c r="J99" s="3"/>
       <c r="K99" s="5"/>
@@ -9640,29 +9142,29 @@
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="3" t="s">
-        <v>1051</v>
+        <v>970</v>
       </c>
       <c r="B100" s="5"/>
       <c r="C100" s="3" t="s">
-        <v>1052</v>
+        <v>971</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>1053</v>
+        <v>972</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>1054</v>
+        <v>973</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>1056</v>
+        <v>974</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>1057</v>
+        <v>975</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>1058</v>
+        <v>976</v>
       </c>
       <c r="J100" s="3"/>
       <c r="K100" s="5"/>
@@ -9684,29 +9186,29 @@
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="3" t="s">
-        <v>1059</v>
+        <v>977</v>
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="3" t="s">
-        <v>1060</v>
+        <v>978</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>1061</v>
+        <v>979</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>1062</v>
+        <v>980</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>1064</v>
+        <v>981</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>1065</v>
+        <v>982</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>1066</v>
+        <v>983</v>
       </c>
       <c r="J101" s="3"/>
       <c r="K101" s="5"/>
@@ -9728,24 +9230,24 @@
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="3" t="s">
-        <v>1067</v>
+        <v>984</v>
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="3" t="s">
-        <v>1068</v>
+        <v>985</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="3" t="s">
-        <v>1069</v>
+        <v>986</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>1070</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>1071</v>
+        <v>987</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>1072</v>
+        <v>988</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="5"/>
@@ -9768,24 +9270,24 @@
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="3" t="s">
-        <v>1073</v>
+        <v>989</v>
       </c>
       <c r="B103" s="5"/>
       <c r="C103" s="3" t="s">
-        <v>1074</v>
+        <v>990</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="3" t="s">
-        <v>1075</v>
+        <v>991</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>1076</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>1077</v>
+        <v>992</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>1078</v>
+        <v>993</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="5"/>
@@ -9808,24 +9310,24 @@
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="2" t="s">
-        <v>1079</v>
+        <v>994</v>
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="3" t="s">
-        <v>1080</v>
+        <v>995</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="3" t="s">
-        <v>1081</v>
+        <v>996</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>1083</v>
+        <v>997</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>1084</v>
+        <v>998</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="5"/>
@@ -9848,24 +9350,24 @@
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="3" t="s">
-        <v>1085</v>
+        <v>999</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="3" t="s">
-        <v>1086</v>
+        <v>1000</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="3" t="s">
-        <v>1087</v>
+        <v>1001</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>1088</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>1089</v>
+        <v>1002</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>1090</v>
+        <v>1003</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="5"/>
@@ -9888,24 +9390,24 @@
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="3" t="s">
-        <v>1091</v>
+        <v>1004</v>
       </c>
       <c r="B106" s="5"/>
       <c r="C106" s="3" t="s">
-        <v>1092</v>
+        <v>1005</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="3" t="s">
-        <v>1093</v>
+        <v>1006</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>1094</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>1095</v>
+        <v>1007</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>1096</v>
+        <v>1008</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="5"/>
@@ -9928,24 +9430,24 @@
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="2" t="s">
-        <v>1097</v>
+        <v>1009</v>
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="3" t="s">
-        <v>1098</v>
+        <v>1010</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="3" t="s">
-        <v>1099</v>
+        <v>1011</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>1101</v>
+        <v>1012</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>1102</v>
+        <v>1013</v>
       </c>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
@@ -9968,21 +9470,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="2" t="s">
-        <v>1103</v>
+        <v>1014</v>
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="3" t="s">
-        <v>1104</v>
+        <v>1015</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="3" t="s">
-        <v>1105</v>
+        <v>1016</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>1106</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>1107</v>
+        <v>1017</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
@@ -10006,21 +9508,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="2" t="s">
-        <v>1108</v>
+        <v>1018</v>
       </c>
       <c r="B109" s="5"/>
       <c r="C109" s="3" t="s">
-        <v>1109</v>
+        <v>1019</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="3" t="s">
-        <v>1110</v>
+        <v>1020</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>1111</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>1112</v>
+        <v>1021</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
@@ -10044,21 +9546,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="2" t="s">
-        <v>1113</v>
+        <v>1022</v>
       </c>
       <c r="B110" s="5"/>
       <c r="C110" s="3" t="s">
-        <v>1114</v>
+        <v>1023</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="3" t="s">
-        <v>1115</v>
+        <v>1024</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>1116</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>1117</v>
+        <v>1025</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
@@ -10082,21 +9584,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="3" t="s">
-        <v>1118</v>
+        <v>1026</v>
       </c>
       <c r="B111" s="5"/>
       <c r="C111" s="3" t="s">
-        <v>1119</v>
+        <v>1027</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="3" t="s">
-        <v>1120</v>
+        <v>1028</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>1122</v>
+        <v>1029</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H111" s="5"/>
       <c r="I111" s="3"/>
@@ -10120,21 +9622,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="2" t="s">
-        <v>1123</v>
+        <v>1030</v>
       </c>
       <c r="B112" s="5"/>
       <c r="C112" s="3" t="s">
-        <v>1124</v>
+        <v>1031</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="3" t="s">
-        <v>1125</v>
+        <v>1032</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>1127</v>
+        <v>1033</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
@@ -10158,21 +9660,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="3" t="s">
-        <v>1128</v>
+        <v>1034</v>
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="3" t="s">
-        <v>1129</v>
+        <v>1035</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="3" t="s">
-        <v>1130</v>
+        <v>1036</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>1131</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>1132</v>
+        <v>1037</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
@@ -10196,21 +9698,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="3" t="s">
-        <v>1133</v>
+        <v>1038</v>
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="3" t="s">
-        <v>1134</v>
+        <v>1039</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="3" t="s">
-        <v>1135</v>
+        <v>1040</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>1137</v>
+        <v>1041</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
@@ -10234,21 +9736,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="3" t="s">
-        <v>1138</v>
+        <v>1042</v>
       </c>
       <c r="B115" s="5"/>
       <c r="C115" s="3" t="s">
-        <v>1139</v>
+        <v>1043</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="3" t="s">
-        <v>1140</v>
+        <v>1044</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>1142</v>
+        <v>1045</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
@@ -10272,21 +9774,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="2" t="s">
-        <v>1143</v>
+        <v>1046</v>
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="3" t="s">
-        <v>1144</v>
+        <v>1047</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="3" t="s">
-        <v>1145</v>
+        <v>1048</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>1146</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>1147</v>
+        <v>1049</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
@@ -10310,21 +9812,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="3" t="s">
-        <v>1148</v>
+        <v>1050</v>
       </c>
       <c r="B117" s="5"/>
       <c r="C117" s="3" t="s">
-        <v>1149</v>
+        <v>1051</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="3" t="s">
-        <v>1150</v>
+        <v>1052</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>1151</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>1152</v>
+        <v>1053</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
@@ -10348,21 +9850,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="3" t="s">
-        <v>1153</v>
+        <v>1054</v>
       </c>
       <c r="B118" s="5"/>
       <c r="C118" s="3" t="s">
-        <v>1154</v>
+        <v>1055</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="3" t="s">
-        <v>1155</v>
+        <v>1056</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>1156</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>1157</v>
+        <v>1057</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
@@ -10386,21 +9888,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="2" t="s">
-        <v>1158</v>
+        <v>1058</v>
       </c>
       <c r="B119" s="5"/>
       <c r="C119" s="3" t="s">
-        <v>1159</v>
+        <v>1059</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="3" t="s">
-        <v>1160</v>
+        <v>1060</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>1161</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>1162</v>
+        <v>1061</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
@@ -10424,21 +9926,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="3" t="s">
-        <v>1163</v>
+        <v>1062</v>
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="3" t="s">
-        <v>1164</v>
+        <v>1063</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="3" t="s">
-        <v>1165</v>
+        <v>1064</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>1166</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>1167</v>
+        <v>1065</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
@@ -10462,21 +9964,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="3" t="s">
-        <v>1168</v>
+        <v>1066</v>
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="3" t="s">
-        <v>1169</v>
+        <v>1067</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="3" t="s">
-        <v>1170</v>
+        <v>1068</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>1171</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>1172</v>
+        <v>1069</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
@@ -10500,21 +10002,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="2" t="s">
-        <v>1173</v>
+        <v>1070</v>
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="3" t="s">
-        <v>1174</v>
+        <v>1071</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="3" t="s">
-        <v>1175</v>
+        <v>1072</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>1177</v>
+        <v>1073</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
@@ -10538,21 +10040,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="3" t="s">
-        <v>1178</v>
+        <v>1074</v>
       </c>
       <c r="B123" s="5"/>
       <c r="C123" s="3" t="s">
-        <v>1179</v>
+        <v>1075</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="3" t="s">
-        <v>1180</v>
+        <v>1076</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>1181</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>1182</v>
+        <v>1077</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
@@ -10576,21 +10078,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="3" t="s">
-        <v>1183</v>
+        <v>1078</v>
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="3" t="s">
-        <v>1184</v>
+        <v>1079</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="3" t="s">
-        <v>1185</v>
+        <v>1080</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>1186</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>1187</v>
+        <v>1081</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
@@ -10614,21 +10116,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="2" t="s">
-        <v>1188</v>
+        <v>1082</v>
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="3" t="s">
-        <v>1189</v>
+        <v>1083</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="3" t="s">
-        <v>1190</v>
+        <v>1084</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>1191</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>1192</v>
+        <v>1085</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
@@ -10652,21 +10154,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="3" t="s">
-        <v>1193</v>
+        <v>1086</v>
       </c>
       <c r="B126" s="5"/>
       <c r="C126" s="3" t="s">
-        <v>1194</v>
+        <v>1087</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="3" t="s">
-        <v>1195</v>
+        <v>1088</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>1196</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>1197</v>
+        <v>1089</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
@@ -10690,21 +10192,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="2" t="s">
-        <v>1198</v>
+        <v>1090</v>
       </c>
       <c r="B127" s="5"/>
       <c r="C127" s="3" t="s">
-        <v>1199</v>
+        <v>1091</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="3" t="s">
-        <v>1200</v>
+        <v>1092</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>1201</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>1202</v>
+        <v>1093</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
@@ -10728,21 +10230,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="2" t="s">
-        <v>1203</v>
+        <v>1094</v>
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="3" t="s">
-        <v>1204</v>
+        <v>1095</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="3" t="s">
-        <v>1205</v>
+        <v>1096</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>1206</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>1207</v>
+        <v>1097</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
@@ -10766,21 +10268,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="3" t="s">
-        <v>1208</v>
+        <v>1098</v>
       </c>
       <c r="B129" s="5"/>
       <c r="C129" s="3" t="s">
-        <v>1209</v>
+        <v>1099</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="3" t="s">
-        <v>1210</v>
+        <v>1100</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>1211</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>1212</v>
+        <v>1101</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
@@ -10804,21 +10306,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="3" t="s">
-        <v>1213</v>
+        <v>1102</v>
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="3" t="s">
-        <v>1214</v>
+        <v>1103</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="3" t="s">
-        <v>1215</v>
+        <v>1104</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>1217</v>
+        <v>1105</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
@@ -10842,21 +10344,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="3" t="s">
-        <v>1218</v>
+        <v>1106</v>
       </c>
       <c r="B131" s="5"/>
       <c r="C131" s="3" t="s">
-        <v>1219</v>
+        <v>1107</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="3" t="s">
-        <v>1220</v>
+        <v>1108</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>1221</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>1222</v>
+        <v>1109</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
@@ -10880,21 +10382,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="2" t="s">
-        <v>1223</v>
+        <v>1110</v>
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="3" t="s">
-        <v>1224</v>
+        <v>1111</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3" t="s">
-        <v>1225</v>
+        <v>1112</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>1226</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>1227</v>
+        <v>1113</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
@@ -10918,21 +10420,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="2" t="s">
-        <v>1228</v>
+        <v>1114</v>
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="3" t="s">
-        <v>1229</v>
+        <v>1115</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3" t="s">
-        <v>1230</v>
+        <v>1116</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>1231</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>1232</v>
+        <v>1117</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
@@ -10956,21 +10458,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="2" t="s">
-        <v>1233</v>
+        <v>1118</v>
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="3" t="s">
-        <v>1234</v>
+        <v>1119</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3" t="s">
-        <v>1235</v>
+        <v>1120</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>1236</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>1237</v>
+        <v>1121</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
@@ -10994,21 +10496,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="3" t="s">
-        <v>1238</v>
+        <v>1122</v>
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="3" t="s">
-        <v>1239</v>
+        <v>1123</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3" t="s">
-        <v>1240</v>
+        <v>1124</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>1241</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>1242</v>
+        <v>1125</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
@@ -11032,21 +10534,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="3" t="s">
-        <v>1243</v>
+        <v>1126</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="3" t="s">
-        <v>1244</v>
+        <v>1127</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3" t="s">
-        <v>1245</v>
+        <v>1128</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>1246</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>1247</v>
+        <v>1129</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
@@ -11070,21 +10572,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="2" t="s">
-        <v>1248</v>
+        <v>1130</v>
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="3" t="s">
-        <v>1249</v>
+        <v>1131</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="s">
-        <v>1250</v>
+        <v>1132</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>1251</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>1252</v>
+        <v>1133</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
@@ -11108,21 +10610,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="3" t="s">
-        <v>1253</v>
+        <v>1134</v>
       </c>
       <c r="B138" s="5"/>
       <c r="C138" s="3" t="s">
-        <v>1254</v>
+        <v>1135</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3" t="s">
-        <v>1255</v>
+        <v>1136</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>1256</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>1257</v>
+        <v>1137</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
@@ -11146,21 +10648,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="3" t="s">
-        <v>1258</v>
+        <v>1138</v>
       </c>
       <c r="B139" s="5"/>
       <c r="C139" s="3" t="s">
-        <v>1259</v>
+        <v>1139</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="3" t="s">
-        <v>1260</v>
+        <v>1140</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>1261</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>1262</v>
+        <v>1141</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
@@ -11184,21 +10686,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="2" t="s">
-        <v>1263</v>
+        <v>1142</v>
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="3" t="s">
-        <v>1264</v>
+        <v>1143</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="3" t="s">
-        <v>1265</v>
+        <v>1144</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>1266</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>1267</v>
+        <v>1145</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
@@ -11222,21 +10724,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="3" t="s">
-        <v>1268</v>
+        <v>1146</v>
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="3" t="s">
-        <v>1269</v>
+        <v>1147</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="3" t="s">
-        <v>1270</v>
+        <v>1148</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>1271</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>1272</v>
+        <v>1149</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
@@ -11260,19 +10762,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="3" t="s">
-        <v>1273</v>
+        <v>1150</v>
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="3" t="s">
-        <v>1274</v>
+        <v>1151</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="3" t="s">
-        <v>1275</v>
+        <v>1152</v>
       </c>
       <c r="F142" s="5"/>
-      <c r="G142" s="3" t="s">
-        <v>1276</v>
+      <c r="G142" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
@@ -11296,19 +10798,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="2" t="s">
-        <v>1277</v>
+        <v>1153</v>
       </c>
       <c r="B143" s="5"/>
       <c r="C143" s="3" t="s">
-        <v>1278</v>
+        <v>1154</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="3" t="s">
-        <v>1279</v>
+        <v>1155</v>
       </c>
       <c r="F143" s="5"/>
-      <c r="G143" s="3" t="s">
-        <v>1280</v>
+      <c r="G143" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
@@ -11332,19 +10834,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="2" t="s">
-        <v>1281</v>
+        <v>1156</v>
       </c>
       <c r="B144" s="5"/>
       <c r="C144" s="3" t="s">
-        <v>1282</v>
+        <v>1157</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="3" t="s">
-        <v>1283</v>
+        <v>1158</v>
       </c>
       <c r="F144" s="5"/>
-      <c r="G144" s="3" t="s">
-        <v>1284</v>
+      <c r="G144" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
@@ -11368,19 +10870,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="3" t="s">
-        <v>1285</v>
+        <v>1159</v>
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="3" t="s">
-        <v>1286</v>
+        <v>1160</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="3" t="s">
-        <v>1287</v>
+        <v>1161</v>
       </c>
       <c r="F145" s="5"/>
-      <c r="G145" s="3" t="s">
-        <v>1288</v>
+      <c r="G145" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
@@ -11404,19 +10906,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="3" t="s">
-        <v>1289</v>
+        <v>1162</v>
       </c>
       <c r="B146" s="5"/>
       <c r="C146" s="3" t="s">
-        <v>1290</v>
+        <v>1163</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="3" t="s">
-        <v>1291</v>
+        <v>1164</v>
       </c>
       <c r="F146" s="5"/>
-      <c r="G146" s="3" t="s">
-        <v>1292</v>
+      <c r="G146" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
@@ -11440,19 +10942,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="2" t="s">
-        <v>1293</v>
+        <v>1165</v>
       </c>
       <c r="B147" s="5"/>
       <c r="C147" s="3" t="s">
-        <v>1294</v>
+        <v>1166</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="3" t="s">
-        <v>1295</v>
+        <v>1167</v>
       </c>
       <c r="F147" s="5"/>
-      <c r="G147" s="3" t="s">
-        <v>1296</v>
+      <c r="G147" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
@@ -11476,19 +10978,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="3" t="s">
-        <v>1297</v>
+        <v>1168</v>
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="3" t="s">
-        <v>1298</v>
+        <v>1169</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="3" t="s">
-        <v>1299</v>
+        <v>1170</v>
       </c>
       <c r="F148" s="5"/>
-      <c r="G148" s="3" t="s">
-        <v>1300</v>
+      <c r="G148" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H148" s="5"/>
       <c r="I148" s="3"/>
@@ -11512,19 +11014,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="3" t="s">
-        <v>1301</v>
+        <v>1171</v>
       </c>
       <c r="B149" s="5"/>
       <c r="C149" s="3" t="s">
-        <v>1302</v>
+        <v>1172</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="3" t="s">
-        <v>1303</v>
+        <v>1173</v>
       </c>
       <c r="F149" s="5"/>
-      <c r="G149" s="3" t="s">
-        <v>1304</v>
+      <c r="G149" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H149" s="5"/>
       <c r="I149" s="3"/>
@@ -11548,19 +11050,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="3" t="s">
-        <v>1305</v>
+        <v>1174</v>
       </c>
       <c r="B150" s="5"/>
       <c r="C150" s="3" t="s">
-        <v>1306</v>
+        <v>1175</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="3" t="s">
-        <v>1307</v>
+        <v>1176</v>
       </c>
       <c r="F150" s="5"/>
-      <c r="G150" s="3" t="s">
-        <v>1308</v>
+      <c r="G150" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H150" s="5"/>
       <c r="I150" s="3"/>
@@ -11584,19 +11086,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="2" t="s">
-        <v>1309</v>
+        <v>1177</v>
       </c>
       <c r="B151" s="5"/>
       <c r="C151" s="3" t="s">
-        <v>1310</v>
+        <v>1178</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="3" t="s">
-        <v>1311</v>
+        <v>1179</v>
       </c>
       <c r="F151" s="5"/>
-      <c r="G151" s="3" t="s">
-        <v>1312</v>
+      <c r="G151" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
@@ -11620,19 +11122,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="3" t="s">
-        <v>1313</v>
+        <v>1180</v>
       </c>
       <c r="B152" s="5"/>
       <c r="C152" s="3" t="s">
-        <v>1314</v>
+        <v>1181</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="3" t="s">
-        <v>1315</v>
+        <v>1182</v>
       </c>
       <c r="F152" s="5"/>
-      <c r="G152" s="3" t="s">
-        <v>1316</v>
+      <c r="G152" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
@@ -11656,19 +11158,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="3" t="s">
-        <v>1317</v>
+        <v>1183</v>
       </c>
       <c r="B153" s="5"/>
       <c r="C153" s="3" t="s">
-        <v>1318</v>
+        <v>1184</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="3" t="s">
-        <v>1319</v>
+        <v>1185</v>
       </c>
       <c r="F153" s="5"/>
-      <c r="G153" s="3" t="s">
-        <v>1320</v>
+      <c r="G153" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
@@ -11692,19 +11194,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="2" t="s">
-        <v>1321</v>
+        <v>1186</v>
       </c>
       <c r="B154" s="5"/>
       <c r="C154" s="3" t="s">
-        <v>1322</v>
+        <v>1187</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="3" t="s">
-        <v>1323</v>
+        <v>1188</v>
       </c>
       <c r="F154" s="5"/>
-      <c r="G154" s="3" t="s">
-        <v>1324</v>
+      <c r="G154" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
@@ -11728,19 +11230,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="3" t="s">
-        <v>1325</v>
+        <v>1189</v>
       </c>
       <c r="B155" s="5"/>
       <c r="C155" s="3" t="s">
-        <v>1326</v>
+        <v>1190</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="3" t="s">
-        <v>1327</v>
+        <v>1191</v>
       </c>
       <c r="F155" s="5"/>
-      <c r="G155" s="3" t="s">
-        <v>1328</v>
+      <c r="G155" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
@@ -11764,19 +11266,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="3" t="s">
-        <v>1329</v>
+        <v>1192</v>
       </c>
       <c r="B156" s="5"/>
       <c r="C156" s="3" t="s">
-        <v>1330</v>
+        <v>1193</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="3" t="s">
-        <v>1331</v>
+        <v>1194</v>
       </c>
       <c r="F156" s="5"/>
-      <c r="G156" s="3" t="s">
-        <v>1332</v>
+      <c r="G156" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
@@ -11800,19 +11302,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="3" t="s">
-        <v>1333</v>
+        <v>1195</v>
       </c>
       <c r="B157" s="5"/>
       <c r="C157" s="3" t="s">
-        <v>1334</v>
+        <v>1196</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="3" t="s">
-        <v>1335</v>
+        <v>1197</v>
       </c>
       <c r="F157" s="5"/>
-      <c r="G157" s="3" t="s">
-        <v>1336</v>
+      <c r="G157" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
@@ -11836,19 +11338,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="2" t="s">
-        <v>1337</v>
+        <v>1198</v>
       </c>
       <c r="B158" s="5"/>
       <c r="C158" s="3" t="s">
-        <v>1338</v>
+        <v>1199</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="3" t="s">
-        <v>1339</v>
+        <v>1200</v>
       </c>
       <c r="F158" s="5"/>
-      <c r="G158" s="3" t="s">
-        <v>1340</v>
+      <c r="G158" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
@@ -11872,19 +11374,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="3" t="s">
-        <v>1341</v>
+        <v>1201</v>
       </c>
       <c r="B159" s="5"/>
       <c r="C159" s="3" t="s">
-        <v>1342</v>
+        <v>1202</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="3" t="s">
-        <v>1343</v>
+        <v>1203</v>
       </c>
       <c r="F159" s="5"/>
-      <c r="G159" s="3" t="s">
-        <v>1344</v>
+      <c r="G159" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
@@ -11908,19 +11410,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="3" t="s">
-        <v>1345</v>
+        <v>1204</v>
       </c>
       <c r="B160" s="5"/>
       <c r="C160" s="3" t="s">
-        <v>1346</v>
+        <v>1205</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="3" t="s">
-        <v>1347</v>
+        <v>1206</v>
       </c>
       <c r="F160" s="5"/>
-      <c r="G160" s="3" t="s">
-        <v>1348</v>
+      <c r="G160" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
@@ -11944,19 +11446,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="3" t="s">
-        <v>1349</v>
+        <v>1207</v>
       </c>
       <c r="B161" s="5"/>
       <c r="C161" s="3" t="s">
-        <v>1350</v>
+        <v>1208</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="3" t="s">
-        <v>1351</v>
+        <v>1209</v>
       </c>
       <c r="F161" s="5"/>
-      <c r="G161" s="3" t="s">
-        <v>1352</v>
+      <c r="G161" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
@@ -11980,19 +11482,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="3" t="s">
-        <v>1353</v>
+        <v>1210</v>
       </c>
       <c r="B162" s="5"/>
       <c r="C162" s="3" t="s">
-        <v>1354</v>
+        <v>1211</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="3" t="s">
-        <v>1355</v>
+        <v>1212</v>
       </c>
       <c r="F162" s="5"/>
-      <c r="G162" s="3" t="s">
-        <v>1356</v>
+      <c r="G162" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
@@ -12016,19 +11518,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="3" t="s">
-        <v>1357</v>
+        <v>1213</v>
       </c>
       <c r="B163" s="5"/>
       <c r="C163" s="3" t="s">
-        <v>1358</v>
+        <v>1214</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="3" t="s">
-        <v>1359</v>
+        <v>1215</v>
       </c>
       <c r="F163" s="5"/>
-      <c r="G163" s="3" t="s">
-        <v>1360</v>
+      <c r="G163" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
@@ -12052,17 +11554,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="2" t="s">
-        <v>1361</v>
+        <v>1216</v>
       </c>
       <c r="B164" s="5"/>
       <c r="C164" s="3" t="s">
-        <v>1362</v>
+        <v>1217</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
-      <c r="G164" s="3" t="s">
-        <v>1363</v>
+      <c r="G164" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
@@ -12086,17 +11588,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="3" t="s">
-        <v>1364</v>
+        <v>1218</v>
       </c>
       <c r="B165" s="5"/>
       <c r="C165" s="3" t="s">
-        <v>1365</v>
+        <v>1219</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
-      <c r="G165" s="3" t="s">
-        <v>1366</v>
+      <c r="G165" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
@@ -12120,17 +11622,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="2" t="s">
-        <v>1367</v>
+        <v>1220</v>
       </c>
       <c r="B166" s="5"/>
       <c r="C166" s="3" t="s">
-        <v>1368</v>
+        <v>1221</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
-      <c r="G166" s="3" t="s">
-        <v>1369</v>
+      <c r="G166" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
@@ -12154,17 +11656,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="2" t="s">
-        <v>1370</v>
+        <v>1222</v>
       </c>
       <c r="B167" s="5"/>
       <c r="C167" s="3" t="s">
-        <v>1371</v>
+        <v>1223</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
-      <c r="G167" s="3" t="s">
-        <v>1372</v>
+      <c r="G167" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
@@ -12188,17 +11690,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="2" t="s">
-        <v>1373</v>
+        <v>1224</v>
       </c>
       <c r="B168" s="5"/>
       <c r="C168" s="3" t="s">
-        <v>1374</v>
+        <v>1225</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
-      <c r="G168" s="3" t="s">
-        <v>1375</v>
+      <c r="G168" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
@@ -12222,17 +11724,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="3" t="s">
-        <v>1376</v>
+        <v>1226</v>
       </c>
       <c r="B169" s="5"/>
       <c r="C169" s="3" t="s">
-        <v>1377</v>
+        <v>1227</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
-      <c r="G169" s="3" t="s">
-        <v>1378</v>
+      <c r="G169" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
@@ -12256,17 +11758,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="2" t="s">
-        <v>1379</v>
+        <v>1228</v>
       </c>
       <c r="B170" s="5"/>
       <c r="C170" s="3" t="s">
-        <v>1380</v>
+        <v>1229</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
-      <c r="G170" s="3" t="s">
-        <v>1381</v>
+      <c r="G170" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
@@ -12290,17 +11792,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="3" t="s">
-        <v>1382</v>
+        <v>1230</v>
       </c>
       <c r="B171" s="5"/>
       <c r="C171" s="3" t="s">
-        <v>1383</v>
+        <v>1231</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
-      <c r="G171" s="3" t="s">
-        <v>1384</v>
+      <c r="G171" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
@@ -12324,17 +11826,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="3" t="s">
-        <v>1385</v>
+        <v>1232</v>
       </c>
       <c r="B172" s="5"/>
       <c r="C172" s="3" t="s">
-        <v>1386</v>
+        <v>1233</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
-      <c r="G172" s="3" t="s">
-        <v>1387</v>
+      <c r="G172" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
@@ -12358,17 +11860,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="3" t="s">
-        <v>1388</v>
+        <v>1234</v>
       </c>
       <c r="B173" s="5"/>
       <c r="C173" s="3" t="s">
-        <v>1389</v>
+        <v>1235</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
-      <c r="G173" s="3" t="s">
-        <v>1390</v>
+      <c r="G173" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H173" s="5"/>
       <c r="I173" s="5"/>
@@ -12392,17 +11894,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="3" t="s">
-        <v>1391</v>
+        <v>1236</v>
       </c>
       <c r="B174" s="5"/>
       <c r="C174" s="3" t="s">
-        <v>1392</v>
+        <v>1237</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
-      <c r="G174" s="3" t="s">
-        <v>1393</v>
+      <c r="G174" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H174" s="5"/>
       <c r="I174" s="5"/>
@@ -12426,17 +11928,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="3" t="s">
-        <v>1394</v>
+        <v>1238</v>
       </c>
       <c r="B175" s="5"/>
       <c r="C175" s="3" t="s">
-        <v>1395</v>
+        <v>1239</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
-      <c r="G175" s="3" t="s">
-        <v>1396</v>
+      <c r="G175" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
@@ -12460,17 +11962,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="3" t="s">
-        <v>1397</v>
+        <v>1240</v>
       </c>
       <c r="B176" s="5"/>
       <c r="C176" s="3" t="s">
-        <v>1398</v>
+        <v>1241</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
-      <c r="G176" s="3" t="s">
-        <v>1399</v>
+      <c r="G176" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H176" s="5"/>
       <c r="I176" s="5"/>
@@ -12494,17 +11996,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="3" t="s">
-        <v>1400</v>
+        <v>1242</v>
       </c>
       <c r="B177" s="5"/>
       <c r="C177" s="3" t="s">
-        <v>1401</v>
+        <v>1243</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
-      <c r="G177" s="3" t="s">
-        <v>1402</v>
+      <c r="G177" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
@@ -12528,17 +12030,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="3" t="s">
-        <v>1403</v>
+        <v>1244</v>
       </c>
       <c r="B178" s="5"/>
       <c r="C178" s="3" t="s">
-        <v>1404</v>
+        <v>1245</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
-      <c r="G178" s="3" t="s">
-        <v>1405</v>
+      <c r="G178" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H178" s="5"/>
       <c r="I178" s="5"/>
@@ -12562,17 +12064,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="3" t="s">
-        <v>1406</v>
+        <v>1246</v>
       </c>
       <c r="B179" s="5"/>
       <c r="C179" s="3" t="s">
-        <v>1407</v>
+        <v>1247</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
-      <c r="G179" s="3" t="s">
-        <v>1408</v>
+      <c r="G179" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
@@ -12596,17 +12098,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="3" t="s">
-        <v>1409</v>
+        <v>1248</v>
       </c>
       <c r="B180" s="5"/>
       <c r="C180" s="3" t="s">
-        <v>1410</v>
+        <v>1249</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
-      <c r="G180" s="3" t="s">
-        <v>1411</v>
+      <c r="G180" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H180" s="5"/>
       <c r="I180" s="5"/>
@@ -12630,17 +12132,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="3" t="s">
-        <v>1412</v>
+        <v>1250</v>
       </c>
       <c r="B181" s="5"/>
       <c r="C181" s="3" t="s">
-        <v>1413</v>
+        <v>1251</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
-      <c r="G181" s="3" t="s">
-        <v>1414</v>
+      <c r="G181" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H181" s="5"/>
       <c r="I181" s="5"/>
@@ -12664,17 +12166,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="2" t="s">
-        <v>1415</v>
+        <v>1252</v>
       </c>
       <c r="B182" s="5"/>
       <c r="C182" s="3" t="s">
-        <v>1416</v>
+        <v>1253</v>
       </c>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
-      <c r="G182" s="3" t="s">
-        <v>1417</v>
+      <c r="G182" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H182" s="5"/>
       <c r="I182" s="5"/>
@@ -12698,17 +12200,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="3" t="s">
-        <v>1418</v>
+        <v>1254</v>
       </c>
       <c r="B183" s="5"/>
       <c r="C183" s="3" t="s">
-        <v>1419</v>
+        <v>1255</v>
       </c>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
-      <c r="G183" s="3" t="s">
-        <v>1420</v>
+      <c r="G183" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
@@ -12732,17 +12234,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="3" t="s">
-        <v>1421</v>
+        <v>1256</v>
       </c>
       <c r="B184" s="5"/>
       <c r="C184" s="3" t="s">
-        <v>1422</v>
+        <v>1257</v>
       </c>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
-      <c r="G184" s="3" t="s">
-        <v>1423</v>
+      <c r="G184" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H184" s="5"/>
       <c r="I184" s="5"/>
@@ -12766,17 +12268,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="3" t="s">
-        <v>1424</v>
+        <v>1258</v>
       </c>
       <c r="B185" s="5"/>
       <c r="C185" s="3" t="s">
-        <v>1425</v>
+        <v>1259</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
-      <c r="G185" s="3" t="s">
-        <v>1426</v>
+      <c r="G185" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H185" s="5"/>
       <c r="I185" s="5"/>
@@ -12802,13 +12304,13 @@
       <c r="A186" s="2"/>
       <c r="B186" s="5"/>
       <c r="C186" s="3" t="s">
-        <v>1427</v>
+        <v>1260</v>
       </c>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
-      <c r="G186" s="3" t="s">
-        <v>1428</v>
+      <c r="G186" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H186" s="5"/>
       <c r="I186" s="5"/>
@@ -12834,13 +12336,13 @@
       <c r="A187" s="2"/>
       <c r="B187" s="5"/>
       <c r="C187" s="3" t="s">
-        <v>1429</v>
+        <v>1261</v>
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
-      <c r="G187" s="3" t="s">
-        <v>1430</v>
+      <c r="G187" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
@@ -12866,13 +12368,13 @@
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="3" t="s">
-        <v>1431</v>
+        <v>1262</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
-      <c r="G188" s="3" t="s">
-        <v>1432</v>
+      <c r="G188" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H188" s="5"/>
       <c r="I188" s="5"/>
@@ -12898,13 +12400,13 @@
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="3" t="s">
-        <v>1433</v>
+        <v>1263</v>
       </c>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
-      <c r="G189" s="3" t="s">
-        <v>1434</v>
+      <c r="G189" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H189" s="5"/>
       <c r="I189" s="5"/>
@@ -12930,7 +12432,7 @@
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="3" t="s">
-        <v>1435</v>
+        <v>1264</v>
       </c>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -12960,7 +12462,7 @@
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="3" t="s">
-        <v>1436</v>
+        <v>1265</v>
       </c>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -12990,7 +12492,7 @@
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="3" t="s">
-        <v>1437</v>
+        <v>1266</v>
       </c>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -13019,7 +12521,7 @@
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="3"/>
       <c r="B193" s="5"/>
-      <c r="C193" s="5"/>
+      <c r="C193" s="7"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
@@ -13047,7 +12549,7 @@
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="3"/>
       <c r="B194" s="5"/>
-      <c r="C194" s="5"/>
+      <c r="C194" s="7"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
@@ -13075,7 +12577,7 @@
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
-      <c r="C195" s="5"/>
+      <c r="C195" s="7"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
@@ -13103,7 +12605,7 @@
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
-      <c r="C196" s="5"/>
+      <c r="C196" s="7"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
@@ -13131,7 +12633,7 @@
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
-      <c r="C197" s="5"/>
+      <c r="C197" s="7"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
@@ -13159,7 +12661,7 @@
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
-      <c r="C198" s="5"/>
+      <c r="C198" s="7"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
@@ -13187,7 +12689,7 @@
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
-      <c r="C199" s="5"/>
+      <c r="C199" s="7"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
@@ -13215,7 +12717,7 @@
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
-      <c r="C200" s="5"/>
+      <c r="C200" s="7"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
@@ -13243,7 +12745,7 @@
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
-      <c r="C201" s="5"/>
+      <c r="C201" s="7"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
@@ -13271,7 +12773,7 @@
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
-      <c r="C202" s="5"/>
+      <c r="C202" s="7"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
@@ -13299,7 +12801,7 @@
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
-      <c r="C203" s="5"/>
+      <c r="C203" s="7"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
@@ -13327,7 +12829,7 @@
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
-      <c r="C204" s="5"/>
+      <c r="C204" s="7"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
@@ -13355,7 +12857,7 @@
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
-      <c r="C205" s="5"/>
+      <c r="C205" s="7"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
@@ -13383,7 +12885,7 @@
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
-      <c r="C206" s="5"/>
+      <c r="C206" s="7"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
@@ -13411,7 +12913,7 @@
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
-      <c r="C207" s="5"/>
+      <c r="C207" s="7"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
@@ -13439,7 +12941,7 @@
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
-      <c r="C208" s="5"/>
+      <c r="C208" s="7"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
@@ -13467,7 +12969,7 @@
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
-      <c r="C209" s="5"/>
+      <c r="C209" s="7"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
@@ -13495,7 +12997,7 @@
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
-      <c r="C210" s="5"/>
+      <c r="C210" s="7"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
@@ -13523,7 +13025,7 @@
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
-      <c r="C211" s="5"/>
+      <c r="C211" s="7"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
@@ -13551,7 +13053,7 @@
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
-      <c r="C212" s="5"/>
+      <c r="C212" s="7"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
@@ -13579,7 +13081,7 @@
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
-      <c r="C213" s="5"/>
+      <c r="C213" s="7"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
@@ -13607,7 +13109,7 @@
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
-      <c r="C214" s="5"/>
+      <c r="C214" s="7"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
@@ -13635,7 +13137,7 @@
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
-      <c r="C215" s="5"/>
+      <c r="C215" s="7"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
@@ -13663,7 +13165,7 @@
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
-      <c r="C216" s="5"/>
+      <c r="C216" s="7"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
@@ -13691,7 +13193,7 @@
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
-      <c r="C217" s="5"/>
+      <c r="C217" s="7"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
@@ -13719,7 +13221,7 @@
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
-      <c r="C218" s="5"/>
+      <c r="C218" s="7"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
@@ -13747,7 +13249,7 @@
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
-      <c r="C219" s="5"/>
+      <c r="C219" s="7"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
@@ -13775,7 +13277,7 @@
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
-      <c r="C220" s="5"/>
+      <c r="C220" s="7"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
@@ -13803,7 +13305,7 @@
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
-      <c r="C221" s="5"/>
+      <c r="C221" s="7"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
@@ -13831,7 +13333,7 @@
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
-      <c r="C222" s="5"/>
+      <c r="C222" s="7"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
@@ -13859,7 +13361,7 @@
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
-      <c r="C223" s="5"/>
+      <c r="C223" s="7"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
@@ -13887,7 +13389,7 @@
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
-      <c r="C224" s="5"/>
+      <c r="C224" s="7"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
@@ -13915,7 +13417,7 @@
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
-      <c r="C225" s="5"/>
+      <c r="C225" s="7"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
@@ -13943,7 +13445,7 @@
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
-      <c r="C226" s="5"/>
+      <c r="C226" s="7"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
@@ -13971,7 +13473,7 @@
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
-      <c r="C227" s="5"/>
+      <c r="C227" s="7"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
@@ -13999,7 +13501,7 @@
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
-      <c r="C228" s="5"/>
+      <c r="C228" s="7"/>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
@@ -14027,7 +13529,7 @@
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
-      <c r="C229" s="5"/>
+      <c r="C229" s="7"/>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
@@ -14055,7 +13557,7 @@
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
-      <c r="C230" s="5"/>
+      <c r="C230" s="7"/>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
@@ -14083,7 +13585,7 @@
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
-      <c r="C231" s="5"/>
+      <c r="C231" s="7"/>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
@@ -14111,7 +13613,7 @@
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
-      <c r="C232" s="5"/>
+      <c r="C232" s="7"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
@@ -14139,7 +13641,7 @@
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
-      <c r="C233" s="5"/>
+      <c r="C233" s="7"/>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
       <c r="F233" s="5"/>
@@ -14167,7 +13669,7 @@
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
-      <c r="C234" s="5"/>
+      <c r="C234" s="7"/>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
       <c r="F234" s="5"/>
@@ -14195,7 +13697,7 @@
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
-      <c r="C235" s="5"/>
+      <c r="C235" s="7"/>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
       <c r="F235" s="5"/>
@@ -14223,7 +13725,7 @@
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
-      <c r="C236" s="5"/>
+      <c r="C236" s="7"/>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
@@ -14251,7 +13753,7 @@
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
-      <c r="C237" s="5"/>
+      <c r="C237" s="7"/>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
@@ -14279,7 +13781,7 @@
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
-      <c r="C238" s="5"/>
+      <c r="C238" s="7"/>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
       <c r="F238" s="5"/>
@@ -14307,7 +13809,7 @@
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
-      <c r="C239" s="5"/>
+      <c r="C239" s="7"/>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
@@ -14335,7 +13837,7 @@
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
-      <c r="C240" s="5"/>
+      <c r="C240" s="7"/>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
       <c r="F240" s="5"/>
@@ -14363,7 +13865,7 @@
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
-      <c r="C241" s="5"/>
+      <c r="C241" s="7"/>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
@@ -14391,7 +13893,7 @@
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
-      <c r="C242" s="5"/>
+      <c r="C242" s="7"/>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
@@ -14419,7 +13921,7 @@
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
-      <c r="C243" s="5"/>
+      <c r="C243" s="7"/>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
       <c r="F243" s="5"/>
@@ -14447,7 +13949,7 @@
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
-      <c r="C244" s="5"/>
+      <c r="C244" s="7"/>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
       <c r="F244" s="5"/>
@@ -14475,7 +13977,7 @@
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
-      <c r="C245" s="5"/>
+      <c r="C245" s="7"/>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
@@ -14503,7 +14005,7 @@
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
-      <c r="C246" s="5"/>
+      <c r="C246" s="7"/>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
       <c r="F246" s="5"/>
@@ -14531,7 +14033,7 @@
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
-      <c r="C247" s="5"/>
+      <c r="C247" s="7"/>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
@@ -14559,7 +14061,7 @@
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
-      <c r="C248" s="5"/>
+      <c r="C248" s="7"/>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
       <c r="F248" s="5"/>
@@ -14615,7 +14117,7 @@
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
-      <c r="C250" s="5"/>
+      <c r="C250" s="7"/>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
       <c r="F250" s="5"/>
@@ -14643,7 +14145,7 @@
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
-      <c r="C251" s="5"/>
+      <c r="C251" s="7"/>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
       <c r="F251" s="5"/>
@@ -14671,7 +14173,7 @@
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
-      <c r="C252" s="5"/>
+      <c r="C252" s="7"/>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
@@ -14699,7 +14201,7 @@
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
-      <c r="C253" s="5"/>
+      <c r="C253" s="7"/>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
       <c r="F253" s="5"/>
@@ -14727,7 +14229,7 @@
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
-      <c r="C254" s="5"/>
+      <c r="C254" s="7"/>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
       <c r="F254" s="5"/>
@@ -14755,7 +14257,7 @@
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
-      <c r="C255" s="5"/>
+      <c r="C255" s="7"/>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
       <c r="F255" s="5"/>
@@ -14783,7 +14285,7 @@
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
-      <c r="C256" s="5"/>
+      <c r="C256" s="7"/>
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
       <c r="F256" s="5"/>
@@ -14811,7 +14313,7 @@
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
-      <c r="C257" s="5"/>
+      <c r="C257" s="7"/>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
